--- a/tests/indicators/s-z/Sma/Sma.Calc.xlsx
+++ b/tests/indicators/s-z/Sma/Sma.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9151A2F2-A771-4EDA-910F-9B0F6A382896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F75664-C7CD-4B55-BD12-5F2780B9B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMA - Close" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>sma</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1311,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="28" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="28" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="26" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="25" dataCellStyle="Currency"/>
@@ -1665,7 +1668,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1676,7 +1679,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1711,7 +1714,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>42738</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>42739</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42740</v>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>42741</v>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>42744</v>
@@ -1831,7 +1834,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>42745</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>42746</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>42747</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>42748</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>42752</v>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>42753</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>42754</v>
@@ -1999,7 +2002,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>42755</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>42758</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>42759</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>42760</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>42761</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>42762</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>42765</v>
@@ -2170,7 +2173,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>42766</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>42767</v>
@@ -2248,7 +2251,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>42768</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>42769</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>42772</v>
@@ -2365,7 +2368,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>42773</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>42774</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>42775</v>
@@ -2482,7 +2485,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>42776</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>42779</v>
@@ -2560,7 +2563,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>42780</v>
@@ -2599,7 +2602,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>42781</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>42782</v>
@@ -2677,7 +2680,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>42783</v>
@@ -2716,7 +2719,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>42787</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>42788</v>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>42789</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>42790</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>42793</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>42794</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>42795</v>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>42796</v>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>42797</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>42800</v>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>42801</v>
@@ -3145,7 +3148,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>42802</v>
@@ -3184,7 +3187,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>42803</v>
@@ -3223,7 +3226,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>42804</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>42807</v>
@@ -3301,7 +3304,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>42808</v>
@@ -3340,7 +3343,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>42809</v>
@@ -3379,7 +3382,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>42810</v>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>42811</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>42814</v>
@@ -3496,7 +3499,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>42815</v>
@@ -3535,7 +3538,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>42816</v>
@@ -3574,7 +3577,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>42817</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>42818</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>42821</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>42822</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>42823</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>42824</v>
@@ -3808,7 +3811,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>42825</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>42828</v>
@@ -3886,7 +3889,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>42829</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>42830</v>
@@ -3964,7 +3967,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>42831</v>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>42832</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>42835</v>
@@ -4081,7 +4084,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>42836</v>
@@ -4120,7 +4123,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>42837</v>
@@ -4159,7 +4162,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>42838</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>42842</v>
@@ -4237,7 +4240,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>42843</v>
@@ -4276,7 +4279,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>42844</v>
@@ -4315,7 +4318,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>42845</v>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>42846</v>
@@ -4393,7 +4396,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>42849</v>
@@ -4432,7 +4435,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>42850</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>42851</v>
@@ -4510,7 +4513,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>42852</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>42853</v>
@@ -4588,7 +4591,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>42856</v>
@@ -4627,7 +4630,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>42857</v>
@@ -4666,7 +4669,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>42858</v>
@@ -4705,7 +4708,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>42859</v>
@@ -4744,7 +4747,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>42860</v>
@@ -4783,7 +4786,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>42863</v>
@@ -4822,7 +4825,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>42864</v>
@@ -4861,7 +4864,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>42865</v>
@@ -4900,7 +4903,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>42866</v>
@@ -4939,7 +4942,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>42867</v>
@@ -4978,7 +4981,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>42870</v>
@@ -5017,7 +5020,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>42871</v>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>42872</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>42873</v>
@@ -5134,7 +5137,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>42874</v>
@@ -5173,7 +5176,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>42877</v>
@@ -5212,7 +5215,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>42878</v>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>42879</v>
@@ -5290,7 +5293,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>42880</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>42881</v>
@@ -5368,7 +5371,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>42885</v>
@@ -5407,7 +5410,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>42886</v>
@@ -5446,7 +5449,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>42887</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>42888</v>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>42891</v>
@@ -5563,7 +5566,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>42892</v>
@@ -5602,7 +5605,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>42893</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>42894</v>
@@ -5680,7 +5683,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>42895</v>
@@ -5719,7 +5722,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>42898</v>
@@ -5758,7 +5761,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>42899</v>
@@ -5797,7 +5800,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>42900</v>
@@ -5836,7 +5839,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>42901</v>
@@ -5875,7 +5878,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>42902</v>
@@ -5914,7 +5917,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>42905</v>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>42906</v>
@@ -5992,7 +5995,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>42907</v>
@@ -6031,7 +6034,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>42908</v>
@@ -6070,7 +6073,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>42909</v>
@@ -6109,7 +6112,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>42912</v>
@@ -6148,7 +6151,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>42913</v>
@@ -6187,7 +6190,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>42914</v>
@@ -6226,7 +6229,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>42915</v>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>42916</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>42919</v>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>42921</v>
@@ -6382,7 +6385,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>42922</v>
@@ -6421,7 +6424,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>42923</v>
@@ -6460,7 +6463,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>42926</v>
@@ -6499,7 +6502,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>42927</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>42928</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>42929</v>
@@ -6616,7 +6619,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>42930</v>
@@ -6655,7 +6658,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>42933</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>42934</v>
@@ -6733,7 +6736,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>42935</v>
@@ -6772,7 +6775,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>42936</v>
@@ -6811,7 +6814,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>42937</v>
@@ -6850,7 +6853,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>42940</v>
@@ -6889,7 +6892,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>42941</v>
@@ -6928,7 +6931,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>42942</v>
@@ -6967,7 +6970,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>42943</v>
@@ -7006,7 +7009,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>42944</v>
@@ -7045,7 +7048,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>42947</v>
@@ -7084,7 +7087,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>42948</v>
@@ -7123,7 +7126,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>42949</v>
@@ -7162,7 +7165,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>42950</v>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>42951</v>
@@ -7240,7 +7243,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>42954</v>
@@ -7279,7 +7282,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>42955</v>
@@ -7318,7 +7321,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>42956</v>
@@ -7357,7 +7360,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>42957</v>
@@ -7396,7 +7399,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>42958</v>
@@ -7435,7 +7438,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>42961</v>
@@ -7474,7 +7477,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>42962</v>
@@ -7513,7 +7516,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>42963</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>42964</v>
@@ -7591,7 +7594,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>42965</v>
@@ -7630,7 +7633,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>42968</v>
@@ -7669,7 +7672,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>42969</v>
@@ -7708,7 +7711,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>42970</v>
@@ -7747,7 +7750,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>42971</v>
@@ -7786,7 +7789,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>42972</v>
@@ -7825,7 +7828,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>42975</v>
@@ -7864,7 +7867,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>42976</v>
@@ -7903,7 +7906,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>42977</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>42978</v>
@@ -7981,7 +7984,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>42979</v>
@@ -8020,7 +8023,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>42983</v>
@@ -8059,7 +8062,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>42984</v>
@@ -8098,7 +8101,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>42985</v>
@@ -8137,7 +8140,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>42986</v>
@@ -8176,7 +8179,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>42989</v>
@@ -8215,7 +8218,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>42990</v>
@@ -8254,7 +8257,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>42991</v>
@@ -8293,7 +8296,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>42992</v>
@@ -8332,7 +8335,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>42993</v>
@@ -8371,7 +8374,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>42996</v>
@@ -8410,7 +8413,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>42997</v>
@@ -8449,7 +8452,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>42998</v>
@@ -8488,7 +8491,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>42999</v>
@@ -8527,7 +8530,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>43000</v>
@@ -8566,7 +8569,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>43003</v>
@@ -8605,7 +8608,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>43004</v>
@@ -8644,7 +8647,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>43005</v>
@@ -8683,7 +8686,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>43006</v>
@@ -8722,7 +8725,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>43007</v>
@@ -8761,7 +8764,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>43010</v>
@@ -8800,7 +8803,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>43011</v>
@@ -8839,7 +8842,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>43012</v>
@@ -8878,7 +8881,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>43013</v>
@@ -8917,7 +8920,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>43014</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>43017</v>
@@ -8995,7 +8998,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>43018</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>43019</v>
@@ -9073,7 +9076,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>43020</v>
@@ -9112,7 +9115,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>43021</v>
@@ -9151,7 +9154,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>43024</v>
@@ -9190,7 +9193,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>43025</v>
@@ -9229,7 +9232,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>43026</v>
@@ -9268,7 +9271,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>43027</v>
@@ -9307,7 +9310,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>43028</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>43031</v>
@@ -9385,7 +9388,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>43032</v>
@@ -9424,7 +9427,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>43033</v>
@@ -9463,7 +9466,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>43034</v>
@@ -9502,7 +9505,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>43035</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>43038</v>
@@ -9580,7 +9583,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>43039</v>
@@ -9619,7 +9622,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>43040</v>
@@ -9658,7 +9661,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>43041</v>
@@ -9697,7 +9700,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>43042</v>
@@ -9736,7 +9739,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>43045</v>
@@ -9775,7 +9778,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>43046</v>
@@ -9814,7 +9817,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>43047</v>
@@ -9853,7 +9856,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>43048</v>
@@ -9892,7 +9895,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>43049</v>
@@ -9931,7 +9934,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>43052</v>
@@ -9970,7 +9973,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>43053</v>
@@ -10009,7 +10012,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>43054</v>
@@ -10048,7 +10051,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>43055</v>
@@ -10087,7 +10090,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>43056</v>
@@ -10126,7 +10129,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>43059</v>
@@ -10165,7 +10168,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>43060</v>
@@ -10204,7 +10207,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>43061</v>
@@ -10243,7 +10246,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>43063</v>
@@ -10282,7 +10285,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>43066</v>
@@ -10321,7 +10324,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>43067</v>
@@ -10360,7 +10363,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>43068</v>
@@ -10399,7 +10402,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>43069</v>
@@ -10438,7 +10441,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>43070</v>
@@ -10477,7 +10480,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>43073</v>
@@ -10516,7 +10519,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>43074</v>
@@ -10555,7 +10558,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>43075</v>
@@ -10594,7 +10597,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>43076</v>
@@ -10633,7 +10636,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>43077</v>
@@ -10672,7 +10675,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>43080</v>
@@ -10711,7 +10714,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>43081</v>
@@ -10750,7 +10753,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>43082</v>
@@ -10789,7 +10792,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>43083</v>
@@ -10828,7 +10831,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>43084</v>
@@ -10867,7 +10870,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>43087</v>
@@ -10906,7 +10909,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3">
         <v>43088</v>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3">
         <v>43089</v>
@@ -10984,7 +10987,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3">
         <v>43090</v>
@@ -11023,7 +11026,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3">
         <v>43091</v>
@@ -11062,7 +11065,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3">
         <v>43095</v>
@@ -11101,7 +11104,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3">
         <v>43096</v>
@@ -11140,7 +11143,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3">
         <v>43097</v>
@@ -11179,7 +11182,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3">
         <v>43098</v>
@@ -11218,7 +11221,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3">
         <v>43102</v>
@@ -11257,7 +11260,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3">
         <v>43103</v>
@@ -11296,7 +11299,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3">
         <v>43104</v>
@@ -11335,7 +11338,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3">
         <v>43105</v>
@@ -11374,7 +11377,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3">
         <v>43108</v>
@@ -11413,7 +11416,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3">
         <v>43109</v>
@@ -11452,7 +11455,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3">
         <v>43110</v>
@@ -11491,7 +11494,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3">
         <v>43111</v>
@@ -11530,7 +11533,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3">
         <v>43112</v>
@@ -11569,7 +11572,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3">
         <v>43116</v>
@@ -11608,7 +11611,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3">
         <v>43117</v>
@@ -11647,7 +11650,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3">
         <v>43118</v>
@@ -11686,7 +11689,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3">
         <v>43119</v>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3">
         <v>43122</v>
@@ -11764,7 +11767,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3">
         <v>43123</v>
@@ -11803,7 +11806,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3">
         <v>43124</v>
@@ -11842,7 +11845,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3">
         <v>43125</v>
@@ -11881,7 +11884,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3">
         <v>43126</v>
@@ -11920,7 +11923,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3">
         <v>43129</v>
@@ -11959,7 +11962,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3">
         <v>43130</v>
@@ -11998,7 +12001,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3">
         <v>43131</v>
@@ -12037,7 +12040,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3">
         <v>43132</v>
@@ -12076,7 +12079,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3">
         <v>43133</v>
@@ -12115,7 +12118,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3">
         <v>43136</v>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3">
         <v>43137</v>
@@ -12193,7 +12196,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3">
         <v>43138</v>
@@ -12232,7 +12235,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3">
         <v>43139</v>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3">
         <v>43140</v>
@@ -12310,7 +12313,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3">
         <v>43143</v>
@@ -12349,7 +12352,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3">
         <v>43144</v>
@@ -12388,7 +12391,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3">
         <v>43145</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3">
         <v>43146</v>
@@ -12466,7 +12469,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3">
         <v>43147</v>
@@ -12505,7 +12508,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3">
         <v>43151</v>
@@ -12544,7 +12547,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3">
         <v>43152</v>
@@ -12583,7 +12586,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3">
         <v>43153</v>
@@ -12622,7 +12625,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3">
         <v>43154</v>
@@ -12661,7 +12664,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3">
         <v>43157</v>
@@ -12700,7 +12703,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3">
         <v>43158</v>
@@ -12739,7 +12742,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3">
         <v>43159</v>
@@ -12778,7 +12781,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3">
         <v>43160</v>
@@ -12817,7 +12820,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3">
         <v>43161</v>
@@ -12856,7 +12859,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3">
         <v>43164</v>
@@ -12895,7 +12898,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3">
         <v>43165</v>
@@ -12934,7 +12937,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3">
         <v>43166</v>
@@ -12973,7 +12976,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3">
         <v>43167</v>
@@ -13012,7 +13015,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3">
         <v>43168</v>
@@ -13051,7 +13054,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3">
         <v>43171</v>
@@ -13090,7 +13093,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3">
         <v>43172</v>
@@ -13129,7 +13132,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3">
         <v>43173</v>
@@ -13168,7 +13171,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3">
         <v>43174</v>
@@ -13207,7 +13210,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3">
         <v>43175</v>
@@ -13246,7 +13249,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3">
         <v>43178</v>
@@ -13285,7 +13288,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3">
         <v>43179</v>
@@ -13324,7 +13327,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3">
         <v>43180</v>
@@ -13363,7 +13366,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3">
         <v>43181</v>
@@ -13402,7 +13405,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3">
         <v>43182</v>
@@ -13441,7 +13444,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3">
         <v>43185</v>
@@ -13480,7 +13483,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3">
         <v>43186</v>
@@ -13519,7 +13522,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3">
         <v>43187</v>
@@ -13558,7 +13561,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3">
         <v>43188</v>
@@ -13597,7 +13600,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3">
         <v>43192</v>
@@ -13636,7 +13639,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3">
         <v>43193</v>
@@ -13675,7 +13678,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3">
         <v>43194</v>
@@ -13714,7 +13717,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3">
         <v>43195</v>
@@ -13753,7 +13756,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3">
         <v>43196</v>
@@ -13792,7 +13795,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3">
         <v>43199</v>
@@ -13831,7 +13834,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3">
         <v>43200</v>
@@ -13870,7 +13873,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3">
         <v>43201</v>
@@ -13909,7 +13912,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3">
         <v>43202</v>
@@ -13948,7 +13951,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3">
         <v>43203</v>
@@ -13987,7 +13990,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3">
         <v>43206</v>
@@ -14026,7 +14029,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3">
         <v>43207</v>
@@ -14065,7 +14068,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3">
         <v>43208</v>
@@ -14104,7 +14107,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3">
         <v>43209</v>
@@ -14143,7 +14146,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3">
         <v>43210</v>
@@ -14182,7 +14185,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3">
         <v>43213</v>
@@ -14221,7 +14224,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3">
         <v>43214</v>
@@ -14260,7 +14263,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3">
         <v>43215</v>
@@ -14299,7 +14302,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3">
         <v>43216</v>
@@ -14338,7 +14341,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3">
         <v>43217</v>
@@ -14377,7 +14380,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3">
         <v>43220</v>
@@ -14416,7 +14419,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3">
         <v>43221</v>
@@ -14455,7 +14458,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3">
         <v>43222</v>
@@ -14494,7 +14497,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3">
         <v>43223</v>
@@ -14533,7 +14536,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3">
         <v>43224</v>
@@ -14572,7 +14575,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3">
         <v>43227</v>
@@ -14611,7 +14614,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3">
         <v>43228</v>
@@ -14650,7 +14653,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3">
         <v>43229</v>
@@ -14689,7 +14692,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3">
         <v>43230</v>
@@ -14728,7 +14731,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3">
         <v>43231</v>
@@ -14767,7 +14770,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3">
         <v>43234</v>
@@ -14806,7 +14809,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3">
         <v>43235</v>
@@ -14845,7 +14848,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3">
         <v>43236</v>
@@ -14884,7 +14887,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3">
         <v>43237</v>
@@ -14923,7 +14926,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3">
         <v>43238</v>
@@ -14962,7 +14965,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3">
         <v>43241</v>
@@ -15001,7 +15004,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3">
         <v>43242</v>
@@ -15040,7 +15043,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3">
         <v>43243</v>
@@ -15079,7 +15082,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3">
         <v>43244</v>
@@ -15118,7 +15121,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3">
         <v>43245</v>
@@ -15157,7 +15160,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3">
         <v>43249</v>
@@ -15196,7 +15199,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3">
         <v>43250</v>
@@ -15235,7 +15238,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3">
         <v>43251</v>
@@ -15274,7 +15277,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3">
         <v>43252</v>
@@ -15313,7 +15316,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3">
         <v>43255</v>
@@ -15352,7 +15355,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3">
         <v>43256</v>
@@ -15391,7 +15394,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3">
         <v>43257</v>
@@ -15430,7 +15433,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3">
         <v>43258</v>
@@ -15469,7 +15472,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3">
         <v>43259</v>
@@ -15508,7 +15511,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3">
         <v>43262</v>
@@ -15547,7 +15550,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3">
         <v>43263</v>
@@ -15586,7 +15589,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3">
         <v>43264</v>
@@ -15625,7 +15628,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3">
         <v>43265</v>
@@ -15664,7 +15667,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3">
         <v>43266</v>
@@ -15703,7 +15706,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3">
         <v>43269</v>
@@ -15742,7 +15745,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3">
         <v>43270</v>
@@ -15781,7 +15784,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3">
         <v>43271</v>
@@ -15820,7 +15823,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3">
         <v>43272</v>
@@ -15859,7 +15862,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3">
         <v>43273</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3">
         <v>43276</v>
@@ -15937,7 +15940,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3">
         <v>43277</v>
@@ -15976,7 +15979,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3">
         <v>43278</v>
@@ -16015,7 +16018,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3">
         <v>43279</v>
@@ -16054,7 +16057,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3">
         <v>43280</v>
@@ -16093,7 +16096,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3">
         <v>43283</v>
@@ -16132,7 +16135,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3">
         <v>43284</v>
@@ -16171,7 +16174,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3">
         <v>43286</v>
@@ -16210,7 +16213,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3">
         <v>43287</v>
@@ -16249,7 +16252,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3">
         <v>43290</v>
@@ -16288,7 +16291,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3">
         <v>43291</v>
@@ -16327,7 +16330,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3">
         <v>43292</v>
@@ -16366,7 +16369,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3">
         <v>43293</v>
@@ -16405,7 +16408,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3">
         <v>43294</v>
@@ -16444,7 +16447,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3">
         <v>43297</v>
@@ -16483,7 +16486,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3">
         <v>43298</v>
@@ -16522,7 +16525,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3">
         <v>43299</v>
@@ -16561,7 +16564,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3">
         <v>43300</v>
@@ -16600,7 +16603,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3">
         <v>43301</v>
@@ -16639,7 +16642,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3">
         <v>43304</v>
@@ -16678,7 +16681,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3">
         <v>43305</v>
@@ -16717,7 +16720,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3">
         <v>43306</v>
@@ -16756,7 +16759,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3">
         <v>43307</v>
@@ -16795,7 +16798,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3">
         <v>43308</v>
@@ -16834,7 +16837,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3">
         <v>43311</v>
@@ -16873,7 +16876,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3">
         <v>43312</v>
@@ -16912,7 +16915,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3">
         <v>43313</v>
@@ -16951,7 +16954,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3">
         <v>43314</v>
@@ -16990,7 +16993,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="3">
         <v>43315</v>
@@ -17029,7 +17032,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="3">
         <v>43318</v>
@@ -17068,7 +17071,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="3">
         <v>43319</v>
@@ -17107,7 +17110,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="3">
         <v>43320</v>
@@ -17146,7 +17149,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="3">
         <v>43321</v>
@@ -17185,7 +17188,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="3">
         <v>43322</v>
@@ -17224,7 +17227,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="3">
         <v>43325</v>
@@ -17263,7 +17266,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="3">
         <v>43326</v>
@@ -17302,7 +17305,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="3">
         <v>43327</v>
@@ -17341,7 +17344,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="3">
         <v>43328</v>
@@ -17380,7 +17383,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="3">
         <v>43329</v>
@@ -17419,7 +17422,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="3">
         <v>43332</v>
@@ -17458,7 +17461,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="3">
         <v>43333</v>
@@ -17497,7 +17500,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="3">
         <v>43334</v>
@@ -17536,7 +17539,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="3">
         <v>43335</v>
@@ -17575,7 +17578,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="3">
         <v>43336</v>
@@ -17614,7 +17617,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="3">
         <v>43339</v>
@@ -17653,7 +17656,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="3">
         <v>43340</v>
@@ -17692,7 +17695,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="3">
         <v>43341</v>
@@ -17731,7 +17734,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="3">
         <v>43342</v>
@@ -17770,7 +17773,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="3">
         <v>43343</v>
@@ -17809,7 +17812,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="3">
         <v>43347</v>
@@ -17848,7 +17851,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="3">
         <v>43348</v>
@@ -17887,7 +17890,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="3">
         <v>43349</v>
@@ -17926,7 +17929,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="3">
         <v>43350</v>
@@ -17965,7 +17968,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="3">
         <v>43353</v>
@@ -18004,7 +18007,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="3">
         <v>43354</v>
@@ -18043,7 +18046,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3">
         <v>43355</v>
@@ -18082,7 +18085,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="3">
         <v>43356</v>
@@ -18121,7 +18124,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3">
         <v>43357</v>
@@ -18160,7 +18163,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="3">
         <v>43360</v>
@@ -18199,7 +18202,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="3">
         <v>43361</v>
@@ -18238,7 +18241,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="3">
         <v>43362</v>
@@ -18277,7 +18280,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="3">
         <v>43363</v>
@@ -18316,7 +18319,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="3">
         <v>43364</v>
@@ -18355,7 +18358,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="3">
         <v>43367</v>
@@ -18394,7 +18397,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="3">
         <v>43368</v>
@@ -18433,7 +18436,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="3">
         <v>43369</v>
@@ -18472,7 +18475,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="3">
         <v>43370</v>
@@ -18511,7 +18514,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="3">
         <v>43371</v>
@@ -18550,7 +18553,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="3">
         <v>43374</v>
@@ -18589,7 +18592,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="3">
         <v>43375</v>
@@ -18628,7 +18631,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="3">
         <v>43376</v>
@@ -18667,7 +18670,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="3">
         <v>43377</v>
@@ -18706,7 +18709,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="3">
         <v>43378</v>
@@ -18745,7 +18748,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="3">
         <v>43381</v>
@@ -18784,7 +18787,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="3">
         <v>43382</v>
@@ -18823,7 +18826,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="3">
         <v>43383</v>
@@ -18862,7 +18865,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="3">
         <v>43384</v>
@@ -18901,7 +18904,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="3">
         <v>43385</v>
@@ -18940,7 +18943,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="3">
         <v>43388</v>
@@ -18979,7 +18982,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="3">
         <v>43389</v>
@@ -19018,7 +19021,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="3">
         <v>43390</v>
@@ -19057,7 +19060,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="3">
         <v>43391</v>
@@ -19096,7 +19099,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="3">
         <v>43392</v>
@@ -19135,7 +19138,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="3">
         <v>43395</v>
@@ -19174,7 +19177,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="3">
         <v>43396</v>
@@ -19213,7 +19216,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="3">
         <v>43397</v>
@@ -19252,7 +19255,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="3">
         <v>43398</v>
@@ -19291,7 +19294,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="3">
         <v>43399</v>
@@ -19330,7 +19333,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3">
         <v>43402</v>
@@ -19369,7 +19372,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="3">
         <v>43403</v>
@@ -19408,7 +19411,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3">
         <v>43404</v>
@@ -19447,7 +19450,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="3">
         <v>43405</v>
@@ -19486,7 +19489,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3">
         <v>43406</v>
@@ -19525,7 +19528,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="3">
         <v>43409</v>
@@ -19564,7 +19567,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="3">
         <v>43410</v>
@@ -19603,7 +19606,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="3">
         <v>43411</v>
@@ -19642,7 +19645,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="3">
         <v>43412</v>
@@ -19681,7 +19684,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="3">
         <v>43413</v>
@@ -19720,7 +19723,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="3">
         <v>43416</v>
@@ -19759,7 +19762,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="3">
         <v>43417</v>
@@ -19798,7 +19801,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="3">
         <v>43418</v>
@@ -19837,7 +19840,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="3">
         <v>43419</v>
@@ -19876,7 +19879,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="3">
         <v>43420</v>
@@ -19915,7 +19918,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="3">
         <v>43423</v>
@@ -19954,7 +19957,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="3">
         <v>43424</v>
@@ -19993,7 +19996,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="3">
         <v>43425</v>
@@ -20032,7 +20035,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="3">
         <v>43427</v>
@@ -20071,7 +20074,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="3">
         <v>43430</v>
@@ -20110,7 +20113,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="3">
         <v>43431</v>
@@ -20149,7 +20152,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="3">
         <v>43432</v>
@@ -20188,7 +20191,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="3">
         <v>43433</v>
@@ -20227,7 +20230,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="3">
         <v>43434</v>
@@ -20266,7 +20269,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="3">
         <v>43437</v>
@@ -20305,7 +20308,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="3">
         <v>43438</v>
@@ -20344,7 +20347,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="3">
         <v>43440</v>
@@ -20383,7 +20386,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="3">
         <v>43441</v>
@@ -20422,7 +20425,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="3">
         <v>43444</v>
@@ -20461,7 +20464,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="3">
         <v>43445</v>
@@ -20500,7 +20503,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="3">
         <v>43446</v>
@@ -20539,7 +20542,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="3">
         <v>43447</v>
@@ -20578,7 +20581,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="3">
         <v>43448</v>
@@ -20617,7 +20620,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="3">
         <v>43451</v>
@@ -20656,7 +20659,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="3">
         <v>43452</v>
@@ -20695,7 +20698,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="3">
         <v>43453</v>
@@ -20734,7 +20737,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3">
         <v>43454</v>
@@ -20773,7 +20776,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="3">
         <v>43455</v>
@@ -20812,7 +20815,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="3">
         <v>43458</v>
@@ -20851,7 +20854,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3">
         <v>43460</v>
@@ -20890,7 +20893,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="3">
         <v>43461</v>
@@ -20929,7 +20932,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3">
         <v>43462</v>
@@ -20968,7 +20971,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3">
         <v>43465</v>
@@ -21930,7 +21933,7 @@
         <v>80317680</v>
       </c>
       <c r="H21" s="18">
-        <f>AVERAGE(G2:G21)</f>
+        <f t="shared" ref="H21:H84" si="0">AVERAGE(G2:G21)</f>
         <v>78454379</v>
       </c>
       <c r="J21" s="6">
@@ -21978,7 +21981,7 @@
         <v>83743792</v>
       </c>
       <c r="H22" s="18">
-        <f>AVERAGE(G3:G22)</f>
+        <f t="shared" si="0"/>
         <v>77806124.599999994</v>
       </c>
       <c r="J22" s="6">
@@ -22026,7 +22029,7 @@
         <v>73730552</v>
       </c>
       <c r="H23" s="18">
-        <f>AVERAGE(G4:G23)</f>
+        <f t="shared" si="0"/>
         <v>77325214.599999994</v>
       </c>
       <c r="J23" s="6">
@@ -22074,7 +22077,7 @@
         <v>85273832</v>
       </c>
       <c r="H24" s="18">
-        <f>AVERAGE(G5:G24)</f>
+        <f t="shared" si="0"/>
         <v>77440807.799999997</v>
       </c>
       <c r="J24" s="6">
@@ -22122,7 +22125,7 @@
         <v>61169192</v>
       </c>
       <c r="H25" s="18">
-        <f>AVERAGE(G6:G25)</f>
+        <f t="shared" si="0"/>
         <v>76712059.799999997</v>
       </c>
       <c r="J25" s="6">
@@ -22170,7 +22173,7 @@
         <v>61318484</v>
       </c>
       <c r="H26" s="14">
-        <f>AVERAGE(G7:G26)</f>
+        <f t="shared" si="0"/>
         <v>77293768.200000003</v>
       </c>
       <c r="J26" s="6">
@@ -22218,7 +22221,7 @@
         <v>54581376</v>
       </c>
       <c r="H27" s="18">
-        <f>AVERAGE(G8:G27)</f>
+        <f t="shared" si="0"/>
         <v>76647797.400000006</v>
       </c>
       <c r="J27" s="6">
@@ -22266,7 +22269,7 @@
         <v>69811760</v>
       </c>
       <c r="H28" s="18">
-        <f>AVERAGE(G9:G28)</f>
+        <f t="shared" si="0"/>
         <v>76187639</v>
       </c>
       <c r="J28" s="6">
@@ -22314,7 +22317,7 @@
         <v>69875952</v>
       </c>
       <c r="H29" s="18">
-        <f>AVERAGE(G10:G29)</f>
+        <f t="shared" si="0"/>
         <v>75864948.599999994</v>
       </c>
       <c r="J29" s="6">
@@ -22362,7 +22365,7 @@
         <v>58408632</v>
       </c>
       <c r="H30" s="18">
-        <f>AVERAGE(G11:G30)</f>
+        <f t="shared" si="0"/>
         <v>75466126</v>
       </c>
       <c r="J30" s="6">
@@ -22410,7 +22413,7 @@
         <v>75266840</v>
       </c>
       <c r="H31" s="18">
-        <f>AVERAGE(G12:G31)</f>
+        <f t="shared" si="0"/>
         <v>75988384.799999997</v>
       </c>
       <c r="J31" s="6">
@@ -22458,7 +22461,7 @@
         <v>91860344</v>
       </c>
       <c r="H32" s="18">
-        <f>AVERAGE(G13:G32)</f>
+        <f t="shared" si="0"/>
         <v>77681544.200000003</v>
       </c>
       <c r="J32" s="6">
@@ -22506,7 +22509,7 @@
         <v>89676304</v>
       </c>
       <c r="H33" s="18">
-        <f>AVERAGE(G14:G33)</f>
+        <f t="shared" si="0"/>
         <v>78640183.799999997</v>
       </c>
       <c r="J33" s="6">
@@ -22554,7 +22557,7 @@
         <v>81718352</v>
       </c>
       <c r="H34" s="18">
-        <f>AVERAGE(G15:G34)</f>
+        <f t="shared" si="0"/>
         <v>75890034.200000003</v>
       </c>
       <c r="J34" s="6">
@@ -22602,7 +22605,7 @@
         <v>94146880</v>
       </c>
       <c r="H35" s="18">
-        <f>AVERAGE(G16:G35)</f>
+        <f t="shared" si="0"/>
         <v>76624847</v>
       </c>
       <c r="J35" s="6">
@@ -22650,7 +22653,7 @@
         <v>65747160</v>
       </c>
       <c r="H36" s="18">
-        <f>AVERAGE(G17:G36)</f>
+        <f t="shared" si="0"/>
         <v>74855075.799999997</v>
       </c>
       <c r="J36" s="6">
@@ -22698,7 +22701,7 @@
         <v>78978816</v>
       </c>
       <c r="H37" s="18">
-        <f>AVERAGE(G18:G37)</f>
+        <f t="shared" si="0"/>
         <v>74335270.200000003</v>
       </c>
       <c r="J37" s="6">
@@ -22746,7 +22749,7 @@
         <v>87198608</v>
       </c>
       <c r="H38" s="18">
-        <f>AVERAGE(G19:G38)</f>
+        <f t="shared" si="0"/>
         <v>75521335.400000006</v>
       </c>
       <c r="J38" s="6">
@@ -22794,7 +22797,7 @@
         <v>59819992</v>
       </c>
       <c r="H39" s="18">
-        <f>AVERAGE(G20:G39)</f>
+        <f t="shared" si="0"/>
         <v>75352208.599999994</v>
       </c>
       <c r="J39" s="6">
@@ -22842,7 +22845,7 @@
         <v>102631472</v>
       </c>
       <c r="H40" s="18">
-        <f>AVERAGE(G21:G40)</f>
+        <f t="shared" si="0"/>
         <v>76263801</v>
       </c>
       <c r="J40" s="6">
@@ -22890,7 +22893,7 @@
         <v>157879712</v>
       </c>
       <c r="H41" s="18">
-        <f>AVERAGE(G22:G41)</f>
+        <f t="shared" si="0"/>
         <v>80141902.599999994</v>
       </c>
       <c r="J41" s="6">
@@ -22938,7 +22941,7 @@
         <v>74353376</v>
       </c>
       <c r="H42" s="18">
-        <f>AVERAGE(G23:G42)</f>
+        <f t="shared" si="0"/>
         <v>79672381.799999997</v>
       </c>
       <c r="J42" s="6">
@@ -22986,7 +22989,7 @@
         <v>86767480</v>
       </c>
       <c r="H43" s="18">
-        <f>AVERAGE(G24:G43)</f>
+        <f t="shared" si="0"/>
         <v>80324228.200000003</v>
       </c>
       <c r="J43" s="6">
@@ -23034,7 +23037,7 @@
         <v>58630368</v>
       </c>
       <c r="H44" s="18">
-        <f>AVERAGE(G25:G44)</f>
+        <f t="shared" si="0"/>
         <v>78992055</v>
       </c>
       <c r="J44" s="6">
@@ -23082,7 +23085,7 @@
         <v>68910464</v>
       </c>
       <c r="H45" s="18">
-        <f>AVERAGE(G26:G45)</f>
+        <f t="shared" si="0"/>
         <v>79379118.599999994</v>
       </c>
       <c r="J45" s="6">
@@ -23130,7 +23133,7 @@
         <v>82739456</v>
       </c>
       <c r="H46" s="18">
-        <f>AVERAGE(G27:G46)</f>
+        <f t="shared" si="0"/>
         <v>80450167.200000003</v>
       </c>
       <c r="J46" s="6">
@@ -23178,7 +23181,7 @@
         <v>95986360</v>
       </c>
       <c r="H47" s="18">
-        <f>AVERAGE(G28:G47)</f>
+        <f t="shared" si="0"/>
         <v>82520416.400000006</v>
       </c>
       <c r="J47" s="6">
@@ -23226,7 +23229,7 @@
         <v>86785840</v>
       </c>
       <c r="H48" s="18">
-        <f>AVERAGE(G29:G48)</f>
+        <f t="shared" si="0"/>
         <v>83369120.400000006</v>
       </c>
       <c r="J48" s="6">
@@ -23274,7 +23277,7 @@
         <v>60604724</v>
       </c>
       <c r="H49" s="18">
-        <f>AVERAGE(G30:G49)</f>
+        <f t="shared" si="0"/>
         <v>82905559</v>
       </c>
       <c r="J49" s="6">
@@ -23322,7 +23325,7 @@
         <v>63382108</v>
       </c>
       <c r="H50" s="18">
-        <f>AVERAGE(G31:G50)</f>
+        <f t="shared" si="0"/>
         <v>83154232.799999997</v>
       </c>
       <c r="J50" s="6">
@@ -23370,7 +23373,7 @@
         <v>101699816</v>
       </c>
       <c r="H51" s="18">
-        <f>AVERAGE(G32:G51)</f>
+        <f t="shared" si="0"/>
         <v>84475881.599999994</v>
       </c>
       <c r="J51" s="6">
@@ -23418,7 +23421,7 @@
         <v>82924856</v>
       </c>
       <c r="H52" s="18">
-        <f>AVERAGE(G33:G52)</f>
+        <f t="shared" si="0"/>
         <v>84029107.200000003</v>
       </c>
       <c r="J52" s="6">
@@ -23466,7 +23469,7 @@
         <v>93798120</v>
       </c>
       <c r="H53" s="18">
-        <f>AVERAGE(G34:G53)</f>
+        <f t="shared" si="0"/>
         <v>84235198</v>
       </c>
       <c r="J53" s="6">
@@ -23514,7 +23517,7 @@
         <v>55368008</v>
       </c>
       <c r="H54" s="18">
-        <f>AVERAGE(G35:G54)</f>
+        <f t="shared" si="0"/>
         <v>82917680.799999997</v>
       </c>
       <c r="J54" s="6">
@@ -23562,7 +23565,7 @@
         <v>138912016</v>
       </c>
       <c r="H55" s="18">
-        <f>AVERAGE(G36:G55)</f>
+        <f t="shared" si="0"/>
         <v>85155937.599999994</v>
       </c>
       <c r="J55" s="6">
@@ -23610,7 +23613,7 @@
         <v>102826864</v>
       </c>
       <c r="H56" s="18">
-        <f>AVERAGE(G37:G56)</f>
+        <f t="shared" si="0"/>
         <v>87009922.799999997</v>
       </c>
       <c r="J56" s="6">
@@ -23658,7 +23661,7 @@
         <v>105821032</v>
       </c>
       <c r="H57" s="18">
-        <f>AVERAGE(G38:G57)</f>
+        <f t="shared" si="0"/>
         <v>88352033.599999994</v>
       </c>
       <c r="J57" s="6">
@@ -23706,7 +23709,7 @@
         <v>118567344</v>
       </c>
       <c r="H58" s="18">
-        <f>AVERAGE(G39:G58)</f>
+        <f t="shared" si="0"/>
         <v>89920470.400000006</v>
       </c>
       <c r="J58" s="6">
@@ -23754,7 +23757,7 @@
         <v>92167056</v>
       </c>
       <c r="H59" s="18">
-        <f>AVERAGE(G40:G59)</f>
+        <f t="shared" si="0"/>
         <v>91537823.599999994</v>
       </c>
       <c r="J59" s="6">
@@ -23802,7 +23805,7 @@
         <v>98521432</v>
       </c>
       <c r="H60" s="18">
-        <f>AVERAGE(G41:G60)</f>
+        <f t="shared" si="0"/>
         <v>91332321.599999994</v>
       </c>
       <c r="J60" s="6">
@@ -23850,7 +23853,7 @@
         <v>65288636</v>
       </c>
       <c r="H61" s="18">
-        <f>AVERAGE(G42:G61)</f>
+        <f t="shared" si="0"/>
         <v>86702767.799999997</v>
       </c>
       <c r="J61" s="6">
@@ -23898,7 +23901,7 @@
         <v>59795288</v>
       </c>
       <c r="H62" s="18">
-        <f>AVERAGE(G43:G62)</f>
+        <f t="shared" si="0"/>
         <v>85974863.400000006</v>
       </c>
       <c r="J62" s="6">
@@ -23946,7 +23949,7 @@
         <v>77706304</v>
       </c>
       <c r="H63" s="18">
-        <f>AVERAGE(G44:G63)</f>
+        <f t="shared" si="0"/>
         <v>85521804.599999994</v>
       </c>
       <c r="J63" s="6">
@@ -23994,7 +23997,7 @@
         <v>90156280</v>
       </c>
       <c r="H64" s="18">
-        <f>AVERAGE(G45:G64)</f>
+        <f t="shared" si="0"/>
         <v>87098100.200000003</v>
       </c>
       <c r="J64" s="6">
@@ -24042,7 +24045,7 @@
         <v>59508952</v>
       </c>
       <c r="H65" s="18">
-        <f>AVERAGE(G46:G65)</f>
+        <f t="shared" si="0"/>
         <v>86628024.599999994</v>
       </c>
       <c r="J65" s="6">
@@ -24090,7 +24093,7 @@
         <v>114663488</v>
       </c>
       <c r="H66" s="18">
-        <f>AVERAGE(G47:G66)</f>
+        <f t="shared" si="0"/>
         <v>88224226.200000003</v>
       </c>
       <c r="J66" s="6">
@@ -24138,7 +24141,7 @@
         <v>72861232</v>
       </c>
       <c r="H67" s="18">
-        <f>AVERAGE(G48:G67)</f>
+        <f t="shared" si="0"/>
         <v>87067969.799999997</v>
       </c>
       <c r="J67" s="6">
@@ -24186,7 +24189,7 @@
         <v>78422128</v>
       </c>
       <c r="H68" s="18">
-        <f>AVERAGE(G49:G68)</f>
+        <f t="shared" si="0"/>
         <v>86649784.200000003</v>
       </c>
       <c r="J68" s="6">
@@ -24234,7 +24237,7 @@
         <v>71258848</v>
       </c>
       <c r="H69" s="18">
-        <f>AVERAGE(G50:G69)</f>
+        <f t="shared" si="0"/>
         <v>87182490.400000006</v>
       </c>
       <c r="J69" s="6">
@@ -24282,7 +24285,7 @@
         <v>92789720</v>
       </c>
       <c r="H70" s="18">
-        <f>AVERAGE(G51:G70)</f>
+        <f t="shared" si="0"/>
         <v>88652871</v>
       </c>
       <c r="J70" s="6">
@@ -24330,7 +24333,7 @@
         <v>86275816</v>
       </c>
       <c r="H71" s="18">
-        <f>AVERAGE(G52:G71)</f>
+        <f t="shared" si="0"/>
         <v>87881671</v>
       </c>
       <c r="J71" s="6">
@@ -24378,7 +24381,7 @@
         <v>97885392</v>
       </c>
       <c r="H72" s="18">
-        <f>AVERAGE(G53:G72)</f>
+        <f t="shared" si="0"/>
         <v>88629697.799999997</v>
       </c>
       <c r="J72" s="6">
@@ -24426,7 +24429,7 @@
         <v>72091488</v>
       </c>
       <c r="H73" s="18">
-        <f>AVERAGE(G54:G73)</f>
+        <f t="shared" si="0"/>
         <v>87544366.200000003</v>
       </c>
       <c r="J73" s="6">
@@ -24474,7 +24477,7 @@
         <v>87710560</v>
       </c>
       <c r="H74" s="18">
-        <f>AVERAGE(G55:G74)</f>
+        <f t="shared" si="0"/>
         <v>89161493.799999997</v>
       </c>
       <c r="J74" s="6">
@@ -24522,7 +24525,7 @@
         <v>72401856</v>
       </c>
       <c r="H75" s="18">
-        <f>AVERAGE(G56:G75)</f>
+        <f t="shared" si="0"/>
         <v>85835985.799999997</v>
       </c>
       <c r="J75" s="6">
@@ -24570,7 +24573,7 @@
         <v>97560568</v>
       </c>
       <c r="H76" s="18">
-        <f>AVERAGE(G57:G76)</f>
+        <f t="shared" si="0"/>
         <v>85572671</v>
       </c>
       <c r="J76" s="6">
@@ -24618,7 +24621,7 @@
         <v>116338368</v>
       </c>
       <c r="H77" s="18">
-        <f>AVERAGE(G58:G77)</f>
+        <f t="shared" si="0"/>
         <v>86098537.799999997</v>
       </c>
       <c r="J77" s="6">
@@ -24666,7 +24669,7 @@
         <v>125633672</v>
       </c>
       <c r="H78" s="18">
-        <f>AVERAGE(G59:G78)</f>
+        <f t="shared" si="0"/>
         <v>86451854.200000003</v>
       </c>
       <c r="J78" s="6">
@@ -24714,7 +24717,7 @@
         <v>80831256</v>
       </c>
       <c r="H79" s="18">
-        <f>AVERAGE(G60:G79)</f>
+        <f t="shared" si="0"/>
         <v>85885064.200000003</v>
       </c>
       <c r="J79" s="6">
@@ -24762,7 +24765,7 @@
         <v>89266768</v>
       </c>
       <c r="H80" s="18">
-        <f>AVERAGE(G61:G80)</f>
+        <f t="shared" si="0"/>
         <v>85422331</v>
       </c>
       <c r="J80" s="6">
@@ -24810,7 +24813,7 @@
         <v>60503960</v>
       </c>
       <c r="H81" s="18">
-        <f>AVERAGE(G62:G81)</f>
+        <f t="shared" si="0"/>
         <v>85183097.200000003</v>
       </c>
       <c r="J81" s="6">
@@ -24858,7 +24861,7 @@
         <v>66956400</v>
       </c>
       <c r="H82" s="18">
-        <f>AVERAGE(G63:G82)</f>
+        <f t="shared" si="0"/>
         <v>85541152.799999997</v>
       </c>
       <c r="J82" s="6">
@@ -24906,7 +24909,7 @@
         <v>70486576</v>
       </c>
       <c r="H83" s="18">
-        <f>AVERAGE(G64:G83)</f>
+        <f t="shared" si="0"/>
         <v>85180166.400000006</v>
       </c>
       <c r="J83" s="6">
@@ -24954,7 +24957,7 @@
         <v>60467504</v>
       </c>
       <c r="H84" s="18">
-        <f>AVERAGE(G65:G84)</f>
+        <f t="shared" si="0"/>
         <v>83695727.599999994</v>
       </c>
       <c r="J84" s="6">
@@ -25002,7 +25005,7 @@
         <v>77078864</v>
       </c>
       <c r="H85" s="18">
-        <f>AVERAGE(G66:G85)</f>
+        <f t="shared" ref="H85:H148" si="1">AVERAGE(G66:G85)</f>
         <v>84574223.200000003</v>
       </c>
       <c r="J85" s="6">
@@ -25050,7 +25053,7 @@
         <v>64774736</v>
       </c>
       <c r="H86" s="18">
-        <f>AVERAGE(G67:G86)</f>
+        <f t="shared" si="1"/>
         <v>82079785.599999994</v>
       </c>
       <c r="J86" s="6">
@@ -25098,7 +25101,7 @@
         <v>65342296</v>
       </c>
       <c r="H87" s="18">
-        <f>AVERAGE(G68:G87)</f>
+        <f t="shared" si="1"/>
         <v>81703838.799999997</v>
       </c>
       <c r="J87" s="6">
@@ -25146,7 +25149,7 @@
         <v>50993060</v>
       </c>
       <c r="H88" s="18">
-        <f>AVERAGE(G69:G88)</f>
+        <f t="shared" si="1"/>
         <v>80332385.400000006</v>
       </c>
       <c r="J88" s="6">
@@ -25194,7 +25197,7 @@
         <v>54130976</v>
       </c>
       <c r="H89" s="18">
-        <f>AVERAGE(G70:G89)</f>
+        <f t="shared" si="1"/>
         <v>79475991.799999997</v>
       </c>
       <c r="J89" s="6">
@@ -25242,7 +25245,7 @@
         <v>57219496</v>
       </c>
       <c r="H90" s="18">
-        <f>AVERAGE(G71:G90)</f>
+        <f t="shared" si="1"/>
         <v>77697480.599999994</v>
       </c>
       <c r="J90" s="6">
@@ -25290,7 +25293,7 @@
         <v>65718612</v>
       </c>
       <c r="H91" s="18">
-        <f>AVERAGE(G72:G91)</f>
+        <f t="shared" si="1"/>
         <v>76669620.400000006</v>
       </c>
       <c r="J91" s="6">
@@ -25338,7 +25341,7 @@
         <v>56817892</v>
       </c>
       <c r="H92" s="18">
-        <f>AVERAGE(G73:G92)</f>
+        <f t="shared" si="1"/>
         <v>74616245.400000006</v>
       </c>
       <c r="J92" s="6">
@@ -25386,7 +25389,7 @@
         <v>65255528</v>
       </c>
       <c r="H93" s="18">
-        <f>AVERAGE(G74:G93)</f>
+        <f t="shared" si="1"/>
         <v>74274447.400000006</v>
       </c>
       <c r="J93" s="6">
@@ -25434,7 +25437,7 @@
         <v>54003024</v>
       </c>
       <c r="H94" s="18">
-        <f>AVERAGE(G75:G94)</f>
+        <f t="shared" si="1"/>
         <v>72589070.599999994</v>
       </c>
       <c r="J94" s="6">
@@ -25482,7 +25485,7 @@
         <v>181451968</v>
       </c>
       <c r="H95" s="18">
-        <f>AVERAGE(G76:G95)</f>
+        <f t="shared" si="1"/>
         <v>78041576.200000003</v>
       </c>
       <c r="J95" s="6">
@@ -25530,7 +25533,7 @@
         <v>112816072</v>
       </c>
       <c r="H96" s="18">
-        <f>AVERAGE(G77:G96)</f>
+        <f t="shared" si="1"/>
         <v>78804351.400000006</v>
       </c>
       <c r="J96" s="6">
@@ -25578,7 +25581,7 @@
         <v>121208928</v>
       </c>
       <c r="H97" s="18">
-        <f>AVERAGE(G78:G97)</f>
+        <f t="shared" si="1"/>
         <v>79047879.400000006</v>
       </c>
       <c r="J97" s="6">
@@ -25626,7 +25629,7 @@
         <v>64298244</v>
       </c>
       <c r="H98" s="18">
-        <f>AVERAGE(G79:G98)</f>
+        <f t="shared" si="1"/>
         <v>75981108</v>
       </c>
       <c r="J98" s="6">
@@ -25674,7 +25677,7 @@
         <v>50946640</v>
       </c>
       <c r="H99" s="18">
-        <f>AVERAGE(G80:G99)</f>
+        <f t="shared" si="1"/>
         <v>74486877.200000003</v>
       </c>
       <c r="J99" s="6">
@@ -25722,7 +25725,7 @@
         <v>51831288</v>
       </c>
       <c r="H100" s="18">
-        <f>AVERAGE(G81:G100)</f>
+        <f t="shared" si="1"/>
         <v>72615103.200000003</v>
       </c>
       <c r="J100" s="6">
@@ -25770,7 +25773,7 @@
         <v>67524256</v>
       </c>
       <c r="H101" s="18">
-        <f>AVERAGE(G82:G101)</f>
+        <f t="shared" si="1"/>
         <v>72966118</v>
       </c>
       <c r="J101" s="6">
@@ -25818,7 +25821,7 @@
         <v>49142620</v>
       </c>
       <c r="H102" s="18">
-        <f>AVERAGE(G83:G102)</f>
+        <f t="shared" si="1"/>
         <v>72075429</v>
       </c>
       <c r="J102" s="6">
@@ -25866,7 +25869,7 @@
         <v>37098796</v>
       </c>
       <c r="H103" s="18">
-        <f>AVERAGE(G84:G103)</f>
+        <f t="shared" si="1"/>
         <v>70406040</v>
       </c>
       <c r="J103" s="6">
@@ -25914,7 +25917,7 @@
         <v>96742576</v>
       </c>
       <c r="H104" s="18">
-        <f>AVERAGE(G85:G104)</f>
+        <f t="shared" si="1"/>
         <v>72219793.599999994</v>
       </c>
       <c r="J104" s="6">
@@ -25962,7 +25965,7 @@
         <v>72678144</v>
       </c>
       <c r="H105" s="18">
-        <f>AVERAGE(G86:G105)</f>
+        <f t="shared" si="1"/>
         <v>71999757.599999994</v>
       </c>
       <c r="J105" s="6">
@@ -26010,7 +26013,7 @@
         <v>93444032</v>
       </c>
       <c r="H106" s="18">
-        <f>AVERAGE(G87:G106)</f>
+        <f t="shared" si="1"/>
         <v>73433222.400000006</v>
       </c>
       <c r="J106" s="6">
@@ -26058,7 +26061,7 @@
         <v>47107480</v>
       </c>
       <c r="H107" s="18">
-        <f>AVERAGE(G88:G107)</f>
+        <f t="shared" si="1"/>
         <v>72521481.599999994</v>
       </c>
       <c r="J107" s="6">
@@ -26106,7 +26109,7 @@
         <v>53089976</v>
       </c>
       <c r="H108" s="18">
-        <f>AVERAGE(G89:G108)</f>
+        <f t="shared" si="1"/>
         <v>72626327.400000006</v>
       </c>
       <c r="J108" s="6">
@@ -26154,7 +26157,7 @@
         <v>57061952</v>
       </c>
       <c r="H109" s="18">
-        <f>AVERAGE(G90:G109)</f>
+        <f t="shared" si="1"/>
         <v>72772876.200000003</v>
       </c>
       <c r="J109" s="6">
@@ -26202,7 +26205,7 @@
         <v>69504536</v>
       </c>
       <c r="H110" s="18">
-        <f>AVERAGE(G91:G110)</f>
+        <f t="shared" si="1"/>
         <v>73387128.200000003</v>
       </c>
       <c r="J110" s="6">
@@ -26250,7 +26253,7 @@
         <v>139383184</v>
       </c>
       <c r="H111" s="18">
-        <f>AVERAGE(G92:G111)</f>
+        <f t="shared" si="1"/>
         <v>77070356.799999997</v>
       </c>
       <c r="J111" s="6">
@@ -26298,7 +26301,7 @@
         <v>90748160</v>
       </c>
       <c r="H112" s="18">
-        <f>AVERAGE(G93:G112)</f>
+        <f t="shared" si="1"/>
         <v>78766870.200000003</v>
       </c>
       <c r="J112" s="6">
@@ -26346,7 +26349,7 @@
         <v>63303744</v>
       </c>
       <c r="H113" s="18">
-        <f>AVERAGE(G94:G113)</f>
+        <f t="shared" si="1"/>
         <v>78669281</v>
       </c>
       <c r="J113" s="6">
@@ -26394,7 +26397,7 @@
         <v>82837904</v>
       </c>
       <c r="H114" s="18">
-        <f>AVERAGE(G95:G114)</f>
+        <f t="shared" si="1"/>
         <v>80111025</v>
       </c>
       <c r="J114" s="6">
@@ -26442,7 +26445,7 @@
         <v>70046440</v>
       </c>
       <c r="H115" s="18">
-        <f>AVERAGE(G96:G115)</f>
+        <f t="shared" si="1"/>
         <v>74540748.599999994</v>
       </c>
       <c r="J115" s="6">
@@ -26490,7 +26493,7 @@
         <v>88676880</v>
       </c>
       <c r="H116" s="18">
-        <f>AVERAGE(G97:G116)</f>
+        <f t="shared" si="1"/>
         <v>73333789</v>
       </c>
       <c r="J116" s="6">
@@ -26538,7 +26541,7 @@
         <v>68299992</v>
       </c>
       <c r="H117" s="18">
-        <f>AVERAGE(G98:G117)</f>
+        <f t="shared" si="1"/>
         <v>70688342.200000003</v>
       </c>
       <c r="J117" s="6">
@@ -26586,7 +26589,7 @@
         <v>59681776</v>
       </c>
       <c r="H118" s="18">
-        <f>AVERAGE(G99:G118)</f>
+        <f t="shared" si="1"/>
         <v>70457518.799999997</v>
       </c>
       <c r="J118" s="6">
@@ -26634,7 +26637,7 @@
         <v>58707680</v>
       </c>
       <c r="H119" s="18">
-        <f>AVERAGE(G100:G119)</f>
+        <f t="shared" si="1"/>
         <v>70845570.799999997</v>
       </c>
       <c r="J119" s="6">
@@ -26682,7 +26685,7 @@
         <v>46301224</v>
       </c>
       <c r="H120" s="18">
-        <f>AVERAGE(G101:G120)</f>
+        <f t="shared" si="1"/>
         <v>70569067.599999994</v>
       </c>
       <c r="J120" s="6">
@@ -26730,7 +26733,7 @@
         <v>70253848</v>
       </c>
       <c r="H121" s="18">
-        <f>AVERAGE(G102:G121)</f>
+        <f t="shared" si="1"/>
         <v>70705547.200000003</v>
       </c>
       <c r="J121" s="6">
@@ -26778,7 +26781,7 @@
         <v>59465848</v>
       </c>
       <c r="H122" s="18">
-        <f>AVERAGE(G103:G122)</f>
+        <f t="shared" si="1"/>
         <v>71221708.599999994</v>
       </c>
       <c r="J122" s="6">
@@ -26826,7 +26829,7 @@
         <v>86259016</v>
       </c>
       <c r="H123" s="18">
-        <f>AVERAGE(G104:G123)</f>
+        <f t="shared" si="1"/>
         <v>73679719.599999994</v>
       </c>
       <c r="J123" s="6">
@@ -26874,7 +26877,7 @@
         <v>73458688</v>
       </c>
       <c r="H124" s="18">
-        <f>AVERAGE(G105:G124)</f>
+        <f t="shared" si="1"/>
         <v>72515525.200000003</v>
       </c>
       <c r="J124" s="6">
@@ -26922,7 +26925,7 @@
         <v>112165824</v>
       </c>
       <c r="H125" s="18">
-        <f>AVERAGE(G106:G125)</f>
+        <f t="shared" si="1"/>
         <v>74489909.200000003</v>
       </c>
       <c r="J125" s="6">
@@ -26970,7 +26973,7 @@
         <v>91055080</v>
       </c>
       <c r="H126" s="18">
-        <f>AVERAGE(G107:G126)</f>
+        <f t="shared" si="1"/>
         <v>74370461.599999994</v>
       </c>
       <c r="J126" s="6">
@@ -27018,7 +27021,7 @@
         <v>41063396</v>
       </c>
       <c r="H127" s="18">
-        <f>AVERAGE(G108:G127)</f>
+        <f t="shared" si="1"/>
         <v>74068257.400000006</v>
       </c>
       <c r="J127" s="6">
@@ -27066,7 +27069,7 @@
         <v>57082112</v>
       </c>
       <c r="H128" s="18">
-        <f>AVERAGE(G109:G128)</f>
+        <f t="shared" si="1"/>
         <v>74267864.200000003</v>
       </c>
       <c r="J128" s="6">
@@ -27114,7 +27117,7 @@
         <v>69339864</v>
       </c>
       <c r="H129" s="18">
-        <f>AVERAGE(G110:G129)</f>
+        <f t="shared" si="1"/>
         <v>74881759.799999997</v>
       </c>
       <c r="J129" s="6">
@@ -27162,7 +27165,7 @@
         <v>60799664</v>
       </c>
       <c r="H130" s="18">
-        <f>AVERAGE(G111:G130)</f>
+        <f t="shared" si="1"/>
         <v>74446516.200000003</v>
       </c>
       <c r="J130" s="6">
@@ -27210,7 +27213,7 @@
         <v>38451396</v>
       </c>
       <c r="H131" s="18">
-        <f>AVERAGE(G112:G131)</f>
+        <f t="shared" si="1"/>
         <v>69399926.799999997</v>
       </c>
       <c r="J131" s="6">
@@ -27258,7 +27261,7 @@
         <v>52810484</v>
       </c>
       <c r="H132" s="18">
-        <f>AVERAGE(G113:G132)</f>
+        <f t="shared" si="1"/>
         <v>67503043</v>
       </c>
       <c r="J132" s="6">
@@ -27306,7 +27309,7 @@
         <v>62517696</v>
       </c>
       <c r="H133" s="18">
-        <f>AVERAGE(G114:G133)</f>
+        <f t="shared" si="1"/>
         <v>67463740.599999994</v>
       </c>
       <c r="J133" s="6">
@@ -27354,7 +27357,7 @@
         <v>41396728</v>
       </c>
       <c r="H134" s="18">
-        <f>AVERAGE(G115:G134)</f>
+        <f t="shared" si="1"/>
         <v>65391681.799999997</v>
       </c>
       <c r="J134" s="6">
@@ -27402,7 +27405,7 @@
         <v>63201796</v>
       </c>
       <c r="H135" s="18">
-        <f>AVERAGE(G116:G135)</f>
+        <f t="shared" si="1"/>
         <v>65049449.600000001</v>
       </c>
       <c r="J135" s="6">
@@ -27450,7 +27453,7 @@
         <v>35167316</v>
       </c>
       <c r="H136" s="18">
-        <f>AVERAGE(G117:G136)</f>
+        <f t="shared" si="1"/>
         <v>62373971.399999999</v>
       </c>
       <c r="J136" s="6">
@@ -27498,7 +27501,7 @@
         <v>44827112</v>
       </c>
       <c r="H137" s="18">
-        <f>AVERAGE(G118:G137)</f>
+        <f t="shared" si="1"/>
         <v>61200327.399999999</v>
       </c>
       <c r="J137" s="6">
@@ -27546,7 +27549,7 @@
         <v>53523280</v>
       </c>
       <c r="H138" s="18">
-        <f>AVERAGE(G119:G138)</f>
+        <f t="shared" si="1"/>
         <v>60892402.600000001</v>
       </c>
       <c r="J138" s="6">
@@ -27594,7 +27597,7 @@
         <v>49434036</v>
       </c>
       <c r="H139" s="18">
-        <f>AVERAGE(G120:G139)</f>
+        <f t="shared" si="1"/>
         <v>60428720.399999999</v>
       </c>
       <c r="J139" s="6">
@@ -27642,7 +27645,7 @@
         <v>93037592</v>
       </c>
       <c r="H140" s="18">
-        <f>AVERAGE(G121:G140)</f>
+        <f t="shared" si="1"/>
         <v>62765538.799999997</v>
       </c>
       <c r="J140" s="6">
@@ -27690,7 +27693,7 @@
         <v>48896096</v>
       </c>
       <c r="H141" s="18">
-        <f>AVERAGE(G122:G141)</f>
+        <f t="shared" si="1"/>
         <v>61697651.200000003</v>
       </c>
       <c r="J141" s="6">
@@ -27738,7 +27741,7 @@
         <v>57593908</v>
       </c>
       <c r="H142" s="18">
-        <f>AVERAGE(G123:G142)</f>
+        <f t="shared" si="1"/>
         <v>61604054.200000003</v>
       </c>
       <c r="J142" s="6">
@@ -27786,7 +27789,7 @@
         <v>49895744</v>
       </c>
       <c r="H143" s="18">
-        <f>AVERAGE(G124:G143)</f>
+        <f t="shared" si="1"/>
         <v>59785890.600000001</v>
       </c>
       <c r="J143" s="6">
@@ -27834,7 +27837,7 @@
         <v>74217968</v>
       </c>
       <c r="H144" s="18">
-        <f>AVERAGE(G125:G144)</f>
+        <f t="shared" si="1"/>
         <v>59823854.600000001</v>
       </c>
       <c r="J144" s="6">
@@ -27882,7 +27885,7 @@
         <v>52531244</v>
       </c>
       <c r="H145" s="18">
-        <f>AVERAGE(G126:G145)</f>
+        <f t="shared" si="1"/>
         <v>56842125.600000001</v>
       </c>
       <c r="J145" s="6">
@@ -27930,7 +27933,7 @@
         <v>69049712</v>
       </c>
       <c r="H146" s="18">
-        <f>AVERAGE(G127:G146)</f>
+        <f t="shared" si="1"/>
         <v>55741857.200000003</v>
       </c>
       <c r="J146" s="6">
@@ -27978,7 +27981,7 @@
         <v>57735292</v>
       </c>
       <c r="H147" s="18">
-        <f>AVERAGE(G128:G147)</f>
+        <f t="shared" si="1"/>
         <v>56575452</v>
       </c>
       <c r="J147" s="6">
@@ -28026,7 +28029,7 @@
         <v>49513776</v>
       </c>
       <c r="H148" s="18">
-        <f>AVERAGE(G129:G148)</f>
+        <f t="shared" si="1"/>
         <v>56197035.200000003</v>
       </c>
       <c r="J148" s="6">
@@ -28074,7 +28077,7 @@
         <v>42848608</v>
       </c>
       <c r="H149" s="18">
-        <f>AVERAGE(G130:G149)</f>
+        <f t="shared" ref="H149:H212" si="2">AVERAGE(G130:G149)</f>
         <v>54872472.399999999</v>
       </c>
       <c r="J149" s="6">
@@ -28122,7 +28125,7 @@
         <v>63127488</v>
       </c>
       <c r="H150" s="18">
-        <f>AVERAGE(G131:G150)</f>
+        <f t="shared" si="2"/>
         <v>54988863.600000001</v>
       </c>
       <c r="J150" s="6">
@@ -28170,7 +28173,7 @@
         <v>33555464</v>
       </c>
       <c r="H151" s="18">
-        <f>AVERAGE(G132:G151)</f>
+        <f t="shared" si="2"/>
         <v>54744067</v>
       </c>
       <c r="J151" s="6">
@@ -28218,7 +28221,7 @@
         <v>64729500</v>
       </c>
       <c r="H152" s="18">
-        <f>AVERAGE(G133:G152)</f>
+        <f t="shared" si="2"/>
         <v>55340017.799999997</v>
       </c>
       <c r="J152" s="6">
@@ -28266,7 +28269,7 @@
         <v>65687312</v>
       </c>
       <c r="H153" s="18">
-        <f>AVERAGE(G134:G153)</f>
+        <f t="shared" si="2"/>
         <v>55498498.600000001</v>
       </c>
       <c r="J153" s="6">
@@ -28314,7 +28317,7 @@
         <v>126355448</v>
       </c>
       <c r="H154" s="18">
-        <f>AVERAGE(G135:G154)</f>
+        <f t="shared" si="2"/>
         <v>59746434.600000001</v>
       </c>
       <c r="J154" s="6">
@@ -28362,7 +28365,7 @@
         <v>78521472</v>
       </c>
       <c r="H155" s="18">
-        <f>AVERAGE(G136:G155)</f>
+        <f t="shared" si="2"/>
         <v>60512418.399999999</v>
       </c>
       <c r="J155" s="6">
@@ -28410,7 +28413,7 @@
         <v>76866480</v>
       </c>
       <c r="H156" s="18">
-        <f>AVERAGE(G137:G156)</f>
+        <f t="shared" si="2"/>
         <v>62597376.600000001</v>
       </c>
       <c r="J156" s="6">
@@ -28458,7 +28461,7 @@
         <v>57937020</v>
       </c>
       <c r="H157" s="18">
-        <f>AVERAGE(G138:G157)</f>
+        <f t="shared" si="2"/>
         <v>63252872</v>
       </c>
       <c r="J157" s="6">
@@ -28506,7 +28509,7 @@
         <v>59481648</v>
       </c>
       <c r="H158" s="18">
-        <f>AVERAGE(G139:G158)</f>
+        <f t="shared" si="2"/>
         <v>63550790.399999999</v>
       </c>
       <c r="J158" s="6">
@@ -28554,7 +28557,7 @@
         <v>134757072</v>
       </c>
       <c r="H159" s="18">
-        <f>AVERAGE(G140:G159)</f>
+        <f t="shared" si="2"/>
         <v>67816942.200000003</v>
       </c>
       <c r="J159" s="6">
@@ -28602,7 +28605,7 @@
         <v>143417408</v>
       </c>
       <c r="H160" s="18">
-        <f>AVERAGE(G141:G160)</f>
+        <f t="shared" si="2"/>
         <v>70335933</v>
       </c>
       <c r="J160" s="6">
@@ -28650,7 +28653,7 @@
         <v>68662792</v>
       </c>
       <c r="H161" s="18">
-        <f>AVERAGE(G142:G161)</f>
+        <f t="shared" si="2"/>
         <v>71324267.799999997</v>
       </c>
       <c r="J161" s="6">
@@ -28698,7 +28701,7 @@
         <v>66219544</v>
       </c>
       <c r="H162" s="18">
-        <f>AVERAGE(G143:G162)</f>
+        <f t="shared" si="2"/>
         <v>71755549.599999994</v>
       </c>
       <c r="J162" s="6">
@@ -28746,7 +28749,7 @@
         <v>52652352</v>
       </c>
       <c r="H163" s="18">
-        <f>AVERAGE(G144:G163)</f>
+        <f t="shared" si="2"/>
         <v>71893380</v>
       </c>
       <c r="J163" s="6">
@@ -28794,7 +28797,7 @@
         <v>53216420</v>
       </c>
       <c r="H164" s="18">
-        <f>AVERAGE(G145:G164)</f>
+        <f t="shared" si="2"/>
         <v>70843302.599999994</v>
       </c>
       <c r="J164" s="6">
@@ -28842,7 +28845,7 @@
         <v>67589040</v>
       </c>
       <c r="H165" s="18">
-        <f>AVERAGE(G146:G165)</f>
+        <f t="shared" si="2"/>
         <v>71596192.400000006</v>
       </c>
       <c r="J165" s="6">
@@ -28890,7 +28893,7 @@
         <v>42544052</v>
       </c>
       <c r="H166" s="18">
-        <f>AVERAGE(G147:G166)</f>
+        <f t="shared" si="2"/>
         <v>70270909.400000006</v>
       </c>
       <c r="J166" s="6">
@@ -28938,7 +28941,7 @@
         <v>53629680</v>
       </c>
       <c r="H167" s="18">
-        <f>AVERAGE(G148:G167)</f>
+        <f t="shared" si="2"/>
         <v>70065628.799999997</v>
       </c>
       <c r="J167" s="6">
@@ -28986,7 +28989,7 @@
         <v>65056144</v>
       </c>
       <c r="H168" s="18">
-        <f>AVERAGE(G149:G168)</f>
+        <f t="shared" si="2"/>
         <v>70842747.200000003</v>
       </c>
       <c r="J168" s="6">
@@ -29034,7 +29037,7 @@
         <v>108866560</v>
       </c>
       <c r="H169" s="18">
-        <f>AVERAGE(G150:G169)</f>
+        <f t="shared" si="2"/>
         <v>74143644.799999997</v>
       </c>
       <c r="J169" s="6">
@@ -29082,7 +29085,7 @@
         <v>65031164</v>
       </c>
       <c r="H170" s="18">
-        <f>AVERAGE(G151:G170)</f>
+        <f t="shared" si="2"/>
         <v>74238828.599999994</v>
       </c>
       <c r="J170" s="6">
@@ -29130,7 +29133,7 @@
         <v>95856440</v>
       </c>
       <c r="H171" s="18">
-        <f>AVERAGE(G152:G171)</f>
+        <f t="shared" si="2"/>
         <v>77353877.400000006</v>
       </c>
       <c r="J171" s="6">
@@ -29178,7 +29181,7 @@
         <v>60741564</v>
       </c>
       <c r="H172" s="18">
-        <f>AVERAGE(G153:G172)</f>
+        <f t="shared" si="2"/>
         <v>77154480.599999994</v>
       </c>
       <c r="J172" s="6">
@@ -29226,7 +29229,7 @@
         <v>60865172</v>
       </c>
       <c r="H173" s="18">
-        <f>AVERAGE(G154:G173)</f>
+        <f t="shared" si="2"/>
         <v>76913373.599999994</v>
       </c>
       <c r="J173" s="6">
@@ -29274,7 +29277,7 @@
         <v>66946052</v>
       </c>
       <c r="H174" s="18">
-        <f>AVERAGE(G155:G174)</f>
+        <f t="shared" si="2"/>
         <v>73942903.799999997</v>
       </c>
       <c r="J174" s="6">
@@ -29322,7 +29325,7 @@
         <v>74845424</v>
       </c>
       <c r="H175" s="18">
-        <f>AVERAGE(G156:G175)</f>
+        <f t="shared" si="2"/>
         <v>73759101.400000006</v>
       </c>
       <c r="J175" s="6">
@@ -29370,7 +29373,7 @@
         <v>59670932</v>
       </c>
       <c r="H176" s="18">
-        <f>AVERAGE(G157:G176)</f>
+        <f t="shared" si="2"/>
         <v>72899324</v>
       </c>
       <c r="J176" s="6">
@@ -29418,7 +29421,7 @@
         <v>62116640</v>
       </c>
       <c r="H177" s="18">
-        <f>AVERAGE(G158:G177)</f>
+        <f t="shared" si="2"/>
         <v>73108305</v>
       </c>
       <c r="J177" s="6">
@@ -29466,7 +29469,7 @@
         <v>100101416</v>
       </c>
       <c r="H178" s="18">
-        <f>AVERAGE(G159:G178)</f>
+        <f t="shared" si="2"/>
         <v>75139293.400000006</v>
       </c>
       <c r="J178" s="6">
@@ -29514,7 +29517,7 @@
         <v>99592680</v>
       </c>
       <c r="H179" s="18">
-        <f>AVERAGE(G160:G179)</f>
+        <f t="shared" si="2"/>
         <v>73381073.799999997</v>
       </c>
       <c r="J179" s="6">
@@ -29562,7 +29565,7 @@
         <v>48250824</v>
       </c>
       <c r="H180" s="18">
-        <f>AVERAGE(G161:G180)</f>
+        <f t="shared" si="2"/>
         <v>68622744.599999994</v>
       </c>
       <c r="J180" s="6">
@@ -29610,7 +29613,7 @@
         <v>49161788</v>
       </c>
       <c r="H181" s="18">
-        <f>AVERAGE(G162:G181)</f>
+        <f t="shared" si="2"/>
         <v>67647694.400000006</v>
       </c>
       <c r="J181" s="6">
@@ -29658,7 +29661,7 @@
         <v>62171164</v>
       </c>
       <c r="H182" s="18">
-        <f>AVERAGE(G163:G182)</f>
+        <f t="shared" si="2"/>
         <v>67445275.400000006</v>
       </c>
       <c r="J182" s="6">
@@ -29706,7 +29709,7 @@
         <v>50313136</v>
       </c>
       <c r="H183" s="18">
-        <f>AVERAGE(G164:G183)</f>
+        <f t="shared" si="2"/>
         <v>67328314.599999994</v>
       </c>
       <c r="J183" s="6">
@@ -29754,7 +29757,7 @@
         <v>53446664</v>
       </c>
       <c r="H184" s="18">
-        <f>AVERAGE(G165:G184)</f>
+        <f t="shared" si="2"/>
         <v>67339826.799999997</v>
       </c>
       <c r="J184" s="6">
@@ -29802,7 +29805,7 @@
         <v>59552032</v>
       </c>
       <c r="H185" s="18">
-        <f>AVERAGE(G166:G185)</f>
+        <f t="shared" si="2"/>
         <v>66937976.399999999</v>
       </c>
       <c r="J185" s="6">
@@ -29850,7 +29853,7 @@
         <v>56439616</v>
       </c>
       <c r="H186" s="18">
-        <f>AVERAGE(G167:G186)</f>
+        <f t="shared" si="2"/>
         <v>67632754.599999994</v>
       </c>
       <c r="J186" s="6">
@@ -29898,7 +29901,7 @@
         <v>84532616</v>
       </c>
       <c r="H187" s="18">
-        <f>AVERAGE(G168:G187)</f>
+        <f t="shared" si="2"/>
         <v>69177901.400000006</v>
       </c>
       <c r="J187" s="6">
@@ -29946,7 +29949,7 @@
         <v>46730936</v>
       </c>
       <c r="H188" s="18">
-        <f>AVERAGE(G169:G188)</f>
+        <f t="shared" si="2"/>
         <v>68261641</v>
       </c>
       <c r="J188" s="6">
@@ -29994,7 +29997,7 @@
         <v>89308704</v>
       </c>
       <c r="H189" s="18">
-        <f>AVERAGE(G170:G189)</f>
+        <f t="shared" si="2"/>
         <v>67283748.200000003</v>
       </c>
       <c r="J189" s="6">
@@ -30042,7 +30045,7 @@
         <v>61596044</v>
       </c>
       <c r="H190" s="18">
-        <f>AVERAGE(G171:G190)</f>
+        <f t="shared" si="2"/>
         <v>67111992.200000003</v>
       </c>
       <c r="J190" s="6">
@@ -30090,7 +30093,7 @@
         <v>69722704</v>
       </c>
       <c r="H191" s="18">
-        <f>AVERAGE(G172:G191)</f>
+        <f t="shared" si="2"/>
         <v>65805305.399999999</v>
       </c>
       <c r="J191" s="6">
@@ -30138,7 +30141,7 @@
         <v>58392872</v>
       </c>
       <c r="H192" s="18">
-        <f>AVERAGE(G173:G192)</f>
+        <f t="shared" si="2"/>
         <v>65687870.799999997</v>
       </c>
       <c r="J192" s="6">
@@ -30186,7 +30189,7 @@
         <v>66291980</v>
       </c>
       <c r="H193" s="18">
-        <f>AVERAGE(G174:G193)</f>
+        <f t="shared" si="2"/>
         <v>65959211.200000003</v>
       </c>
       <c r="J193" s="6">
@@ -30234,7 +30237,7 @@
         <v>84161696</v>
       </c>
       <c r="H194" s="18">
-        <f>AVERAGE(G175:G194)</f>
+        <f t="shared" si="2"/>
         <v>66819993.399999999</v>
       </c>
       <c r="J194" s="6">
@@ -30282,7 +30285,7 @@
         <v>37363944</v>
       </c>
       <c r="H195" s="18">
-        <f>AVERAGE(G176:G195)</f>
+        <f t="shared" si="2"/>
         <v>64945919.399999999</v>
       </c>
       <c r="J195" s="6">
@@ -30330,7 +30333,7 @@
         <v>44934412</v>
       </c>
       <c r="H196" s="18">
-        <f>AVERAGE(G177:G196)</f>
+        <f t="shared" si="2"/>
         <v>64209093.399999999</v>
       </c>
       <c r="J196" s="6">
@@ -30378,7 +30381,7 @@
         <v>49752644</v>
       </c>
       <c r="H197" s="18">
-        <f>AVERAGE(G178:G197)</f>
+        <f t="shared" si="2"/>
         <v>63590893.600000001</v>
       </c>
       <c r="J197" s="6">
@@ -30426,7 +30429,7 @@
         <v>49116908</v>
       </c>
       <c r="H198" s="18">
-        <f>AVERAGE(G179:G198)</f>
+        <f t="shared" si="2"/>
         <v>61041668.200000003</v>
       </c>
       <c r="J198" s="6">
@@ -30474,7 +30477,7 @@
         <v>57189416</v>
       </c>
       <c r="H199" s="18">
-        <f>AVERAGE(G180:G199)</f>
+        <f t="shared" si="2"/>
         <v>58921505</v>
       </c>
       <c r="J199" s="6">
@@ -30522,7 +30525,7 @@
         <v>39887916</v>
       </c>
       <c r="H200" s="18">
-        <f>AVERAGE(G181:G200)</f>
+        <f t="shared" si="2"/>
         <v>58503359.600000001</v>
       </c>
       <c r="J200" s="6">
@@ -30570,7 +30573,7 @@
         <v>32936836</v>
       </c>
       <c r="H201" s="18">
-        <f>AVERAGE(G182:G201)</f>
+        <f t="shared" si="2"/>
         <v>57692112</v>
       </c>
       <c r="J201" s="6">
@@ -30618,7 +30621,7 @@
         <v>42670820</v>
       </c>
       <c r="H202" s="18">
-        <f>AVERAGE(G183:G202)</f>
+        <f t="shared" si="2"/>
         <v>56717094.799999997</v>
       </c>
       <c r="J202" s="6">
@@ -30666,7 +30669,7 @@
         <v>64602432</v>
       </c>
       <c r="H203" s="18">
-        <f>AVERAGE(G184:G203)</f>
+        <f t="shared" si="2"/>
         <v>57431559.600000001</v>
       </c>
       <c r="J203" s="6">
@@ -30714,7 +30717,7 @@
         <v>93063952</v>
       </c>
       <c r="H204" s="18">
-        <f>AVERAGE(G185:G204)</f>
+        <f t="shared" si="2"/>
         <v>59412424</v>
       </c>
       <c r="J204" s="6">
@@ -30762,7 +30765,7 @@
         <v>66701640</v>
       </c>
       <c r="H205" s="18">
-        <f>AVERAGE(G186:G205)</f>
+        <f t="shared" si="2"/>
         <v>59769904.399999999</v>
       </c>
       <c r="J205" s="6">
@@ -30810,7 +30813,7 @@
         <v>69853928</v>
       </c>
       <c r="H206" s="18">
-        <f>AVERAGE(G187:G206)</f>
+        <f t="shared" si="2"/>
         <v>60440620</v>
       </c>
       <c r="J206" s="6">
@@ -30858,7 +30861,7 @@
         <v>108236672</v>
       </c>
       <c r="H207" s="18">
-        <f>AVERAGE(G188:G207)</f>
+        <f t="shared" si="2"/>
         <v>61625822.799999997</v>
       </c>
       <c r="J207" s="6">
@@ -30906,7 +30909,7 @@
         <v>72840760</v>
       </c>
       <c r="H208" s="18">
-        <f>AVERAGE(G189:G208)</f>
+        <f t="shared" si="2"/>
         <v>62931314</v>
       </c>
       <c r="J208" s="6">
@@ -30954,7 +30957,7 @@
         <v>89292576</v>
       </c>
       <c r="H209" s="18">
-        <f>AVERAGE(G190:G209)</f>
+        <f t="shared" si="2"/>
         <v>62930507.600000001</v>
       </c>
       <c r="J209" s="6">
@@ -31002,7 +31005,7 @@
         <v>56652224</v>
       </c>
       <c r="H210" s="18">
-        <f>AVERAGE(G191:G210)</f>
+        <f t="shared" si="2"/>
         <v>62683316.600000001</v>
       </c>
       <c r="J210" s="6">
@@ -31050,7 +31053,7 @@
         <v>62933720</v>
       </c>
       <c r="H211" s="18">
-        <f>AVERAGE(G192:G211)</f>
+        <f t="shared" si="2"/>
         <v>62343867.399999999</v>
       </c>
       <c r="J211" s="6">
@@ -31098,7 +31101,7 @@
         <v>56565660</v>
       </c>
       <c r="H212" s="18">
-        <f>AVERAGE(G193:G212)</f>
+        <f t="shared" si="2"/>
         <v>62252506.799999997</v>
       </c>
       <c r="J212" s="6">
@@ -31146,7 +31149,7 @@
         <v>58910404</v>
       </c>
       <c r="H213" s="18">
-        <f>AVERAGE(G194:G213)</f>
+        <f t="shared" ref="H213:H276" si="3">AVERAGE(G194:G213)</f>
         <v>61883428</v>
       </c>
       <c r="J213" s="6">
@@ -31194,7 +31197,7 @@
         <v>62187496</v>
       </c>
       <c r="H214" s="18">
-        <f>AVERAGE(G195:G214)</f>
+        <f t="shared" si="3"/>
         <v>60784718</v>
       </c>
       <c r="J214" s="6">
@@ -31242,7 +31245,7 @@
         <v>51817160</v>
       </c>
       <c r="H215" s="18">
-        <f>AVERAGE(G196:G215)</f>
+        <f t="shared" si="3"/>
         <v>61507378.799999997</v>
       </c>
       <c r="J215" s="6">
@@ -31290,7 +31293,7 @@
         <v>60008920</v>
       </c>
       <c r="H216" s="18">
-        <f>AVERAGE(G197:G216)</f>
+        <f t="shared" si="3"/>
         <v>62261104.200000003</v>
       </c>
       <c r="J216" s="6">
@@ -31338,7 +31341,7 @@
         <v>52669760</v>
       </c>
       <c r="H217" s="18">
-        <f>AVERAGE(G198:G217)</f>
+        <f t="shared" si="3"/>
         <v>62406960</v>
       </c>
       <c r="J217" s="6">
@@ -31386,7 +31389,7 @@
         <v>99230672</v>
       </c>
       <c r="H218" s="18">
-        <f>AVERAGE(G199:G218)</f>
+        <f t="shared" si="3"/>
         <v>64912648.200000003</v>
       </c>
       <c r="J218" s="6">
@@ -31434,7 +31437,7 @@
         <v>62599644</v>
       </c>
       <c r="H219" s="18">
-        <f>AVERAGE(G200:G219)</f>
+        <f t="shared" si="3"/>
         <v>65183159.600000001</v>
       </c>
       <c r="J219" s="6">
@@ -31482,7 +31485,7 @@
         <v>52418324</v>
       </c>
       <c r="H220" s="18">
-        <f>AVERAGE(G201:G220)</f>
+        <f t="shared" si="3"/>
         <v>65809680</v>
       </c>
       <c r="J220" s="6">
@@ -31530,7 +31533,7 @@
         <v>63988136</v>
       </c>
       <c r="H221" s="18">
-        <f>AVERAGE(G202:G221)</f>
+        <f t="shared" si="3"/>
         <v>67362245</v>
       </c>
       <c r="J221" s="6">
@@ -31578,7 +31581,7 @@
         <v>84334432</v>
       </c>
       <c r="H222" s="18">
-        <f>AVERAGE(G203:G222)</f>
+        <f t="shared" si="3"/>
         <v>69445425.599999994</v>
       </c>
       <c r="J222" s="6">
@@ -31626,7 +31629,7 @@
         <v>70731712</v>
       </c>
       <c r="H223" s="18">
-        <f>AVERAGE(G204:G223)</f>
+        <f t="shared" si="3"/>
         <v>69751889.599999994</v>
       </c>
       <c r="J223" s="6">
@@ -31674,7 +31677,7 @@
         <v>79059392</v>
       </c>
       <c r="H224" s="18">
-        <f>AVERAGE(G205:G224)</f>
+        <f t="shared" si="3"/>
         <v>69051661.599999994</v>
       </c>
       <c r="J224" s="6">
@@ -31722,7 +31725,7 @@
         <v>50171324</v>
       </c>
       <c r="H225" s="18">
-        <f>AVERAGE(G206:G225)</f>
+        <f t="shared" si="3"/>
         <v>68225145.799999997</v>
       </c>
       <c r="J225" s="6">
@@ -31770,7 +31773,7 @@
         <v>72192504</v>
       </c>
       <c r="H226" s="18">
-        <f>AVERAGE(G207:G226)</f>
+        <f t="shared" si="3"/>
         <v>68342074.599999994</v>
       </c>
       <c r="J226" s="6">
@@ -31818,7 +31821,7 @@
         <v>46996584</v>
       </c>
       <c r="H227" s="18">
-        <f>AVERAGE(G208:G227)</f>
+        <f t="shared" si="3"/>
         <v>65280070.200000003</v>
       </c>
       <c r="J227" s="6">
@@ -31866,7 +31869,7 @@
         <v>29070892</v>
       </c>
       <c r="H228" s="18">
-        <f>AVERAGE(G209:G228)</f>
+        <f t="shared" si="3"/>
         <v>63091576.799999997</v>
       </c>
       <c r="J228" s="6">
@@ -31914,7 +31917,7 @@
         <v>54553804</v>
       </c>
       <c r="H229" s="18">
-        <f>AVERAGE(G210:G229)</f>
+        <f t="shared" si="3"/>
         <v>61354638.200000003</v>
       </c>
       <c r="J229" s="6">
@@ -31962,7 +31965,7 @@
         <v>103286312</v>
       </c>
       <c r="H230" s="18">
-        <f>AVERAGE(G211:G230)</f>
+        <f t="shared" si="3"/>
         <v>63686342.600000001</v>
       </c>
       <c r="J230" s="6">
@@ -32010,7 +32013,7 @@
         <v>80891176</v>
       </c>
       <c r="H231" s="18">
-        <f>AVERAGE(G212:G231)</f>
+        <f t="shared" si="3"/>
         <v>64584215.399999999</v>
       </c>
       <c r="J231" s="6">
@@ -32058,7 +32061,7 @@
         <v>133469840</v>
       </c>
       <c r="H232" s="18">
-        <f>AVERAGE(G213:G232)</f>
+        <f t="shared" si="3"/>
         <v>68429424.400000006</v>
       </c>
       <c r="J232" s="6">
@@ -32106,7 +32109,7 @@
         <v>171557392</v>
       </c>
       <c r="H233" s="18">
-        <f>AVERAGE(G214:G233)</f>
+        <f t="shared" si="3"/>
         <v>74061773.799999997</v>
       </c>
       <c r="J233" s="6">
@@ -32154,7 +32157,7 @@
         <v>98140184</v>
       </c>
       <c r="H234" s="18">
-        <f>AVERAGE(G215:G234)</f>
+        <f t="shared" si="3"/>
         <v>75859408.200000003</v>
       </c>
       <c r="J234" s="6">
@@ -32202,7 +32205,7 @@
         <v>81394656</v>
       </c>
       <c r="H235" s="18">
-        <f>AVERAGE(G216:G235)</f>
+        <f t="shared" si="3"/>
         <v>77338283</v>
       </c>
       <c r="J235" s="6">
@@ -32250,7 +32253,7 @@
         <v>79207304</v>
       </c>
       <c r="H236" s="18">
-        <f>AVERAGE(G217:G236)</f>
+        <f t="shared" si="3"/>
         <v>78298202.200000003</v>
       </c>
       <c r="J236" s="6">
@@ -32298,7 +32301,7 @@
         <v>80584848</v>
       </c>
       <c r="H237" s="18">
-        <f>AVERAGE(G218:G237)</f>
+        <f t="shared" si="3"/>
         <v>79693956.599999994</v>
       </c>
       <c r="J237" s="6">
@@ -32346,7 +32349,7 @@
         <v>79901608</v>
       </c>
       <c r="H238" s="18">
-        <f>AVERAGE(G219:G238)</f>
+        <f t="shared" si="3"/>
         <v>78727503.400000006</v>
       </c>
       <c r="J238" s="6">
@@ -32394,7 +32397,7 @@
         <v>86699232</v>
       </c>
       <c r="H239" s="18">
-        <f>AVERAGE(G220:G239)</f>
+        <f t="shared" si="3"/>
         <v>79932482.799999997</v>
       </c>
       <c r="J239" s="6">
@@ -32442,7 +32445,7 @@
         <v>88909792</v>
       </c>
       <c r="H240" s="18">
-        <f>AVERAGE(G221:G240)</f>
+        <f t="shared" si="3"/>
         <v>81757056.200000003</v>
       </c>
       <c r="J240" s="6">
@@ -32490,7 +32493,7 @@
         <v>107391488</v>
       </c>
       <c r="H241" s="18">
-        <f>AVERAGE(G222:G241)</f>
+        <f t="shared" si="3"/>
         <v>83927223.799999997</v>
       </c>
       <c r="J241" s="6">
@@ -32538,7 +32541,7 @@
         <v>105055176</v>
       </c>
       <c r="H242" s="18">
-        <f>AVERAGE(G223:G242)</f>
+        <f t="shared" si="3"/>
         <v>84963261</v>
       </c>
       <c r="J242" s="6">
@@ -32586,7 +32589,7 @@
         <v>150146832</v>
       </c>
       <c r="H243" s="18">
-        <f>AVERAGE(G224:G243)</f>
+        <f t="shared" si="3"/>
         <v>88934017</v>
       </c>
       <c r="J243" s="6">
@@ -32634,7 +32637,7 @@
         <v>86856320</v>
       </c>
       <c r="H244" s="18">
-        <f>AVERAGE(G225:G244)</f>
+        <f t="shared" si="3"/>
         <v>89323863.400000006</v>
       </c>
       <c r="J244" s="6">
@@ -32682,7 +32685,7 @@
         <v>85536976</v>
       </c>
       <c r="H245" s="18">
-        <f>AVERAGE(G226:G245)</f>
+        <f t="shared" si="3"/>
         <v>91092146</v>
       </c>
       <c r="J245" s="6">
@@ -32730,7 +32733,7 @@
         <v>79690000</v>
       </c>
       <c r="H246" s="18">
-        <f>AVERAGE(G227:G246)</f>
+        <f t="shared" si="3"/>
         <v>91467020.799999997</v>
       </c>
       <c r="J246" s="6">
@@ -32778,7 +32781,7 @@
         <v>69598728</v>
       </c>
       <c r="H247" s="18">
-        <f>AVERAGE(G228:G247)</f>
+        <f t="shared" si="3"/>
         <v>92597128</v>
       </c>
       <c r="J247" s="6">
@@ -32826,7 +32829,7 @@
         <v>81734768</v>
       </c>
       <c r="H248" s="18">
-        <f>AVERAGE(G229:G248)</f>
+        <f t="shared" si="3"/>
         <v>95230321.799999997</v>
       </c>
       <c r="J248" s="6">
@@ -32874,7 +32877,7 @@
         <v>46976656</v>
       </c>
       <c r="H249" s="18">
-        <f>AVERAGE(G230:G249)</f>
+        <f t="shared" si="3"/>
         <v>94851464.400000006</v>
       </c>
       <c r="J249" s="6">
@@ -32922,7 +32925,7 @@
         <v>59962032</v>
       </c>
       <c r="H250" s="18">
-        <f>AVERAGE(G231:G250)</f>
+        <f t="shared" si="3"/>
         <v>92685250.400000006</v>
       </c>
       <c r="J250" s="6">
@@ -32970,7 +32973,7 @@
         <v>46843448</v>
       </c>
       <c r="H251" s="18">
-        <f>AVERAGE(G232:G251)</f>
+        <f t="shared" si="3"/>
         <v>90982864</v>
       </c>
       <c r="J251" s="6">
@@ -33018,7 +33021,7 @@
         <v>99683152</v>
       </c>
       <c r="H252" s="18">
-        <f>AVERAGE(G233:G252)</f>
+        <f t="shared" si="3"/>
         <v>89293529.599999994</v>
       </c>
       <c r="J252" s="6">
@@ -33066,7 +33069,7 @@
         <v>89973440</v>
       </c>
       <c r="H253" s="18">
-        <f>AVERAGE(G234:G253)</f>
+        <f t="shared" si="3"/>
         <v>85214332</v>
       </c>
       <c r="J253" s="6">
@@ -33114,7 +33117,7 @@
         <v>93518840</v>
       </c>
       <c r="H254" s="18">
-        <f>AVERAGE(G235:G254)</f>
+        <f t="shared" si="3"/>
         <v>84983264.799999997</v>
       </c>
       <c r="J254" s="6">
@@ -33162,7 +33165,7 @@
         <v>83723648</v>
       </c>
       <c r="H255" s="18">
-        <f>AVERAGE(G236:G255)</f>
+        <f t="shared" si="3"/>
         <v>85099714.400000006</v>
       </c>
       <c r="J255" s="6">
@@ -33210,7 +33213,7 @@
         <v>86721784</v>
       </c>
       <c r="H256" s="18">
-        <f>AVERAGE(G237:G256)</f>
+        <f t="shared" si="3"/>
         <v>85475438.400000006</v>
       </c>
       <c r="J256" s="6">
@@ -33258,7 +33261,7 @@
         <v>59513708</v>
       </c>
       <c r="H257" s="18">
-        <f>AVERAGE(G238:G257)</f>
+        <f t="shared" si="3"/>
         <v>84421881.400000006</v>
       </c>
       <c r="J257" s="6">
@@ -33306,7 +33309,7 @@
         <v>59445976</v>
       </c>
       <c r="H258" s="18">
-        <f>AVERAGE(G239:G258)</f>
+        <f t="shared" si="3"/>
         <v>83399099.799999997</v>
       </c>
       <c r="J258" s="6">
@@ -33354,7 +33357,7 @@
         <v>72238032</v>
       </c>
       <c r="H259" s="18">
-        <f>AVERAGE(G240:G259)</f>
+        <f t="shared" si="3"/>
         <v>82676039.799999997</v>
       </c>
       <c r="J259" s="6">
@@ -33402,7 +33405,7 @@
         <v>64749016</v>
       </c>
       <c r="H260" s="18">
-        <f>AVERAGE(G241:G260)</f>
+        <f t="shared" si="3"/>
         <v>81468001</v>
       </c>
       <c r="J260" s="6">
@@ -33450,7 +33453,7 @@
         <v>94293048</v>
       </c>
       <c r="H261" s="18">
-        <f>AVERAGE(G242:G261)</f>
+        <f t="shared" si="3"/>
         <v>80813079</v>
       </c>
       <c r="J261" s="6">
@@ -33498,7 +33501,7 @@
         <v>110634704</v>
       </c>
       <c r="H262" s="18">
-        <f>AVERAGE(G243:G262)</f>
+        <f t="shared" si="3"/>
         <v>81092055.400000006</v>
       </c>
       <c r="J262" s="6">
@@ -33546,7 +33549,7 @@
         <v>117595008</v>
       </c>
       <c r="H263" s="18">
-        <f>AVERAGE(G244:G263)</f>
+        <f t="shared" si="3"/>
         <v>79464464.200000003</v>
       </c>
       <c r="J263" s="6">
@@ -33594,7 +33597,7 @@
         <v>104584464</v>
       </c>
       <c r="H264" s="18">
-        <f>AVERAGE(G245:G264)</f>
+        <f t="shared" si="3"/>
         <v>80350871.400000006</v>
       </c>
       <c r="J264" s="6">
@@ -33642,7 +33645,7 @@
         <v>146315344</v>
       </c>
       <c r="H265" s="18">
-        <f>AVERAGE(G246:G265)</f>
+        <f t="shared" si="3"/>
         <v>83389789.799999997</v>
       </c>
       <c r="J265" s="6">
@@ -33690,7 +33693,7 @@
         <v>94818768</v>
       </c>
       <c r="H266" s="18">
-        <f>AVERAGE(G247:G266)</f>
+        <f t="shared" si="3"/>
         <v>84146228.200000003</v>
       </c>
       <c r="J266" s="6">
@@ -33738,7 +33741,7 @@
         <v>100801672</v>
       </c>
       <c r="H267" s="18">
-        <f>AVERAGE(G248:G267)</f>
+        <f t="shared" si="3"/>
         <v>85706375.400000006</v>
       </c>
       <c r="J267" s="6">
@@ -33786,7 +33789,7 @@
         <v>139977680</v>
       </c>
       <c r="H268" s="18">
-        <f>AVERAGE(G249:G268)</f>
+        <f t="shared" si="3"/>
         <v>88618521</v>
       </c>
       <c r="J268" s="6">
@@ -33834,7 +33837,7 @@
         <v>87825816</v>
       </c>
       <c r="H269" s="18">
-        <f>AVERAGE(G250:G269)</f>
+        <f t="shared" si="3"/>
         <v>90660979</v>
       </c>
       <c r="J269" s="6">
@@ -33882,7 +33885,7 @@
         <v>111868160</v>
       </c>
       <c r="H270" s="18">
-        <f>AVERAGE(G251:G270)</f>
+        <f t="shared" si="3"/>
         <v>93256285.400000006</v>
       </c>
       <c r="J270" s="6">
@@ -33930,7 +33933,7 @@
         <v>93568600</v>
       </c>
       <c r="H271" s="18">
-        <f>AVERAGE(G252:G271)</f>
+        <f t="shared" si="3"/>
         <v>95592543</v>
       </c>
       <c r="J271" s="6">
@@ -33978,7 +33981,7 @@
         <v>136842368</v>
       </c>
       <c r="H272" s="18">
-        <f>AVERAGE(G253:G272)</f>
+        <f t="shared" si="3"/>
         <v>97450503.799999997</v>
       </c>
       <c r="J272" s="6">
@@ -34026,7 +34029,7 @@
         <v>123502168</v>
       </c>
       <c r="H273" s="18">
-        <f>AVERAGE(G254:G273)</f>
+        <f t="shared" si="3"/>
         <v>99126940.200000003</v>
       </c>
       <c r="J273" s="6">
@@ -34074,7 +34077,7 @@
         <v>93552120</v>
       </c>
       <c r="H274" s="18">
-        <f>AVERAGE(G255:G274)</f>
+        <f t="shared" si="3"/>
         <v>99128604.200000003</v>
       </c>
       <c r="J274" s="6">
@@ -34122,7 +34125,7 @@
         <v>179804944</v>
       </c>
       <c r="H275" s="18">
-        <f>AVERAGE(G256:G275)</f>
+        <f t="shared" si="3"/>
         <v>103932669</v>
       </c>
       <c r="J275" s="6">
@@ -34170,7 +34173,7 @@
         <v>305963968</v>
       </c>
       <c r="H276" s="18">
-        <f>AVERAGE(G257:G276)</f>
+        <f t="shared" si="3"/>
         <v>114894778.2</v>
       </c>
       <c r="J276" s="6">
@@ -34218,7 +34221,7 @@
         <v>368619296</v>
       </c>
       <c r="H277" s="18">
-        <f>AVERAGE(G258:G277)</f>
+        <f t="shared" ref="H277:H340" si="4">AVERAGE(G258:G277)</f>
         <v>130350057.59999999</v>
       </c>
       <c r="J277" s="6">
@@ -34266,7 +34269,7 @@
         <v>173784240</v>
       </c>
       <c r="H278" s="18">
-        <f>AVERAGE(G259:G278)</f>
+        <f t="shared" si="4"/>
         <v>136066970.80000001</v>
       </c>
       <c r="J278" s="6">
@@ -34314,7 +34317,7 @@
         <v>255885040</v>
       </c>
       <c r="H279" s="18">
-        <f>AVERAGE(G260:G279)</f>
+        <f t="shared" si="4"/>
         <v>145249321.19999999</v>
       </c>
       <c r="J279" s="6">
@@ -34362,7 +34365,7 @@
         <v>294421856</v>
       </c>
       <c r="H280" s="18">
-        <f>AVERAGE(G261:G280)</f>
+        <f t="shared" si="4"/>
         <v>156732963.19999999</v>
       </c>
       <c r="J280" s="6">
@@ -34410,7 +34413,7 @@
         <v>149239040</v>
       </c>
       <c r="H281" s="18">
-        <f>AVERAGE(G262:G281)</f>
+        <f t="shared" si="4"/>
         <v>159480262.80000001</v>
       </c>
       <c r="J281" s="6">
@@ -34458,7 +34461,7 @@
         <v>84333360</v>
       </c>
       <c r="H282" s="18">
-        <f>AVERAGE(G263:G282)</f>
+        <f t="shared" si="4"/>
         <v>158165195.59999999</v>
       </c>
       <c r="J282" s="6">
@@ -34506,7 +34509,7 @@
         <v>125358160</v>
       </c>
       <c r="H283" s="18">
-        <f>AVERAGE(G264:G283)</f>
+        <f t="shared" si="4"/>
         <v>158553353.19999999</v>
       </c>
       <c r="J283" s="6">
@@ -34554,7 +34557,7 @@
         <v>115457688</v>
       </c>
       <c r="H284" s="18">
-        <f>AVERAGE(G265:G284)</f>
+        <f t="shared" si="4"/>
         <v>159097014.40000001</v>
       </c>
       <c r="J284" s="6">
@@ -34602,7 +34605,7 @@
         <v>166561968</v>
       </c>
       <c r="H285" s="18">
-        <f>AVERAGE(G266:G285)</f>
+        <f t="shared" si="4"/>
         <v>160109345.59999999</v>
       </c>
       <c r="J285" s="6">
@@ -34650,7 +34653,7 @@
         <v>89676400</v>
       </c>
       <c r="H286" s="18">
-        <f>AVERAGE(G267:G286)</f>
+        <f t="shared" si="4"/>
         <v>159852227.19999999</v>
       </c>
       <c r="J286" s="6">
@@ -34698,7 +34701,7 @@
         <v>102669592</v>
       </c>
       <c r="H287" s="18">
-        <f>AVERAGE(G268:G287)</f>
+        <f t="shared" si="4"/>
         <v>159945623.19999999</v>
       </c>
       <c r="J287" s="6">
@@ -34746,7 +34749,7 @@
         <v>114742312</v>
       </c>
       <c r="H288" s="18">
-        <f>AVERAGE(G269:G288)</f>
+        <f t="shared" si="4"/>
         <v>158683854.80000001</v>
       </c>
       <c r="J288" s="6">
@@ -34794,7 +34797,7 @@
         <v>96318072</v>
       </c>
       <c r="H289" s="18">
-        <f>AVERAGE(G270:G289)</f>
+        <f t="shared" si="4"/>
         <v>159108467.59999999</v>
       </c>
       <c r="J289" s="6">
@@ -34842,7 +34845,7 @@
         <v>89802808</v>
       </c>
       <c r="H290" s="18">
-        <f>AVERAGE(G271:G290)</f>
+        <f t="shared" si="4"/>
         <v>158005200</v>
       </c>
       <c r="J290" s="6">
@@ -34890,7 +34893,7 @@
         <v>102893264</v>
       </c>
       <c r="H291" s="18">
-        <f>AVERAGE(G272:G291)</f>
+        <f t="shared" si="4"/>
         <v>158471433.19999999</v>
       </c>
       <c r="J291" s="6">
@@ -34938,7 +34941,7 @@
         <v>126575120</v>
       </c>
       <c r="H292" s="14">
-        <f>AVERAGE(G273:G292)</f>
+        <f t="shared" si="4"/>
         <v>157958070.80000001</v>
       </c>
       <c r="J292" s="6">
@@ -34986,7 +34989,7 @@
         <v>183626128</v>
       </c>
       <c r="H293" s="18">
-        <f>AVERAGE(G274:G293)</f>
+        <f t="shared" si="4"/>
         <v>160964268.80000001</v>
       </c>
       <c r="J293" s="6">
@@ -35034,7 +35037,7 @@
         <v>144408144</v>
       </c>
       <c r="H294" s="18">
-        <f>AVERAGE(G275:G294)</f>
+        <f t="shared" si="4"/>
         <v>163507070</v>
       </c>
       <c r="J294" s="6">
@@ -35082,7 +35085,7 @@
         <v>101032888</v>
       </c>
       <c r="H295" s="18">
-        <f>AVERAGE(G276:G295)</f>
+        <f t="shared" si="4"/>
         <v>159568467.19999999</v>
       </c>
       <c r="J295" s="6">
@@ -35130,7 +35133,7 @@
         <v>82245904</v>
       </c>
       <c r="H296" s="18">
-        <f>AVERAGE(G277:G296)</f>
+        <f t="shared" si="4"/>
         <v>148382564</v>
       </c>
       <c r="J296" s="6">
@@ -35178,7 +35181,7 @@
         <v>90396808</v>
       </c>
       <c r="H297" s="18">
-        <f>AVERAGE(G278:G297)</f>
+        <f t="shared" si="4"/>
         <v>134471439.59999999</v>
       </c>
       <c r="J297" s="6">
@@ -35226,7 +35229,7 @@
         <v>69462520</v>
       </c>
       <c r="H298" s="18">
-        <f>AVERAGE(G279:G298)</f>
+        <f t="shared" si="4"/>
         <v>129255353.59999999</v>
       </c>
       <c r="J298" s="6">
@@ -35274,7 +35277,7 @@
         <v>117975584</v>
       </c>
       <c r="H299" s="18">
-        <f>AVERAGE(G280:G299)</f>
+        <f t="shared" si="4"/>
         <v>122359880.8</v>
       </c>
       <c r="J299" s="6">
@@ -35322,7 +35325,7 @@
         <v>74678496</v>
       </c>
       <c r="H300" s="18">
-        <f>AVERAGE(G281:G300)</f>
+        <f t="shared" si="4"/>
         <v>111372712.8</v>
       </c>
       <c r="J300" s="6">
@@ -35370,7 +35373,7 @@
         <v>95490048</v>
       </c>
       <c r="H301" s="18">
-        <f>AVERAGE(G282:G301)</f>
+        <f t="shared" si="4"/>
         <v>108685263.2</v>
       </c>
       <c r="J301" s="6">
@@ -35418,7 +35421,7 @@
         <v>109949368</v>
       </c>
       <c r="H302" s="18">
-        <f>AVERAGE(G283:G302)</f>
+        <f t="shared" si="4"/>
         <v>109966063.59999999</v>
       </c>
       <c r="J302" s="6">
@@ -35466,7 +35469,7 @@
         <v>86627344</v>
       </c>
       <c r="H303" s="18">
-        <f>AVERAGE(G284:G303)</f>
+        <f t="shared" si="4"/>
         <v>108029522.8</v>
       </c>
       <c r="J303" s="6">
@@ -35514,7 +35517,7 @@
         <v>103769888</v>
       </c>
       <c r="H304" s="18">
-        <f>AVERAGE(G285:G304)</f>
+        <f t="shared" si="4"/>
         <v>107445132.8</v>
       </c>
       <c r="J304" s="6">
@@ -35562,7 +35565,7 @@
         <v>112937344</v>
       </c>
       <c r="H305" s="18">
-        <f>AVERAGE(G286:G305)</f>
+        <f t="shared" si="4"/>
         <v>104763901.59999999</v>
       </c>
       <c r="J305" s="6">
@@ -35610,7 +35613,7 @@
         <v>61797672</v>
       </c>
       <c r="H306" s="18">
-        <f>AVERAGE(G287:G306)</f>
+        <f t="shared" si="4"/>
         <v>103369965.2</v>
       </c>
       <c r="J306" s="6">
@@ -35658,7 +35661,7 @@
         <v>81397104</v>
       </c>
       <c r="H307" s="18">
-        <f>AVERAGE(G288:G307)</f>
+        <f t="shared" si="4"/>
         <v>102306340.8</v>
       </c>
       <c r="J307" s="6">
@@ -35706,7 +35709,7 @@
         <v>153866192</v>
       </c>
       <c r="H308" s="18">
-        <f>AVERAGE(G289:G308)</f>
+        <f t="shared" si="4"/>
         <v>104262534.8</v>
       </c>
       <c r="J308" s="6">
@@ -35754,7 +35757,7 @@
         <v>189801520</v>
       </c>
       <c r="H309" s="18">
-        <f>AVERAGE(G290:G309)</f>
+        <f t="shared" si="4"/>
         <v>108936707.2</v>
       </c>
       <c r="J309" s="6">
@@ -35802,7 +35805,7 @@
         <v>146803168</v>
       </c>
       <c r="H310" s="18">
-        <f>AVERAGE(G291:G310)</f>
+        <f t="shared" si="4"/>
         <v>111786725.2</v>
       </c>
       <c r="J310" s="6">
@@ -35850,7 +35853,7 @@
         <v>134378272</v>
       </c>
       <c r="H311" s="18">
-        <f>AVERAGE(G292:G311)</f>
+        <f t="shared" si="4"/>
         <v>113360975.59999999</v>
       </c>
       <c r="J311" s="6">
@@ -35898,7 +35901,7 @@
         <v>151452896</v>
       </c>
       <c r="H312" s="18">
-        <f>AVERAGE(G293:G312)</f>
+        <f t="shared" si="4"/>
         <v>114604864.40000001</v>
       </c>
       <c r="J312" s="6">
@@ -35946,7 +35949,7 @@
         <v>128487112</v>
       </c>
       <c r="H313" s="18">
-        <f>AVERAGE(G294:G313)</f>
+        <f t="shared" si="4"/>
         <v>111847913.59999999</v>
       </c>
       <c r="J313" s="6">
@@ -35994,7 +35997,7 @@
         <v>192647056</v>
       </c>
       <c r="H314" s="18">
-        <f>AVERAGE(G295:G314)</f>
+        <f t="shared" si="4"/>
         <v>114259859.2</v>
       </c>
       <c r="J314" s="6">
@@ -36042,7 +36045,7 @@
         <v>124052768</v>
       </c>
       <c r="H315" s="18">
-        <f>AVERAGE(G296:G315)</f>
+        <f t="shared" si="4"/>
         <v>115410853.2</v>
       </c>
       <c r="J315" s="6">
@@ -36090,7 +36093,7 @@
         <v>127939576</v>
       </c>
       <c r="H316" s="18">
-        <f>AVERAGE(G297:G316)</f>
+        <f t="shared" si="4"/>
         <v>117695536.8</v>
       </c>
       <c r="J316" s="6">
@@ -36138,7 +36141,7 @@
         <v>85474776</v>
       </c>
       <c r="H317" s="18">
-        <f>AVERAGE(G298:G317)</f>
+        <f t="shared" si="4"/>
         <v>117449435.2</v>
       </c>
       <c r="J317" s="6">
@@ -36186,7 +36189,7 @@
         <v>185650928</v>
       </c>
       <c r="H318" s="18">
-        <f>AVERAGE(G299:G318)</f>
+        <f t="shared" si="4"/>
         <v>123258855.59999999</v>
       </c>
       <c r="J318" s="6">
@@ -36234,7 +36237,7 @@
         <v>109043264</v>
       </c>
       <c r="H319" s="18">
-        <f>AVERAGE(G300:G319)</f>
+        <f t="shared" si="4"/>
         <v>122812239.59999999</v>
       </c>
       <c r="J319" s="6">
@@ -36282,7 +36285,7 @@
         <v>109178536</v>
       </c>
       <c r="H320" s="18">
-        <f>AVERAGE(G301:G320)</f>
+        <f t="shared" si="4"/>
         <v>124537241.59999999</v>
       </c>
       <c r="J320" s="6">
@@ -36330,7 +36333,7 @@
         <v>94252208</v>
       </c>
       <c r="H321" s="18">
-        <f>AVERAGE(G302:G321)</f>
+        <f t="shared" si="4"/>
         <v>124475349.59999999</v>
       </c>
       <c r="J321" s="6">
@@ -36378,7 +36381,7 @@
         <v>71242736</v>
       </c>
       <c r="H322" s="18">
-        <f>AVERAGE(G303:G322)</f>
+        <f t="shared" si="4"/>
         <v>122540018</v>
       </c>
       <c r="J322" s="6">
@@ -36426,7 +36429,7 @@
         <v>87984192</v>
       </c>
       <c r="H323" s="18">
-        <f>AVERAGE(G304:G323)</f>
+        <f t="shared" si="4"/>
         <v>122607860.40000001</v>
       </c>
       <c r="J323" s="6">
@@ -36474,7 +36477,7 @@
         <v>65570252</v>
       </c>
       <c r="H324" s="18">
-        <f>AVERAGE(G305:G324)</f>
+        <f t="shared" si="4"/>
         <v>120697878.59999999</v>
       </c>
       <c r="J324" s="6">
@@ -36522,7 +36525,7 @@
         <v>66890592</v>
       </c>
       <c r="H325" s="18">
-        <f>AVERAGE(G306:G325)</f>
+        <f t="shared" si="4"/>
         <v>118395541</v>
       </c>
       <c r="J325" s="6">
@@ -36570,7 +36573,7 @@
         <v>59260488</v>
       </c>
       <c r="H326" s="18">
-        <f>AVERAGE(G307:G326)</f>
+        <f t="shared" si="4"/>
         <v>118268681.8</v>
       </c>
       <c r="J326" s="6">
@@ -36618,7 +36621,7 @@
         <v>80307456</v>
       </c>
       <c r="H327" s="18">
-        <f>AVERAGE(G308:G327)</f>
+        <f t="shared" si="4"/>
         <v>118214199.40000001</v>
       </c>
       <c r="J327" s="6">
@@ -36666,7 +36669,7 @@
         <v>103366016</v>
       </c>
       <c r="H328" s="18">
-        <f>AVERAGE(G309:G328)</f>
+        <f t="shared" si="4"/>
         <v>115689190.59999999</v>
       </c>
       <c r="J328" s="6">
@@ -36714,7 +36717,7 @@
         <v>67796416</v>
       </c>
       <c r="H329" s="18">
-        <f>AVERAGE(G310:G329)</f>
+        <f t="shared" si="4"/>
         <v>109588935.40000001</v>
       </c>
       <c r="J329" s="6">
@@ -36762,7 +36765,7 @@
         <v>116739904</v>
       </c>
       <c r="H330" s="18">
-        <f>AVERAGE(G311:G330)</f>
+        <f t="shared" si="4"/>
         <v>108085772.2</v>
       </c>
       <c r="J330" s="6">
@@ -36810,7 +36813,7 @@
         <v>107386584</v>
       </c>
       <c r="H331" s="18">
-        <f>AVERAGE(G312:G331)</f>
+        <f t="shared" si="4"/>
         <v>106736187.8</v>
       </c>
       <c r="J331" s="6">
@@ -36858,7 +36861,7 @@
         <v>70044640</v>
       </c>
       <c r="H332" s="18">
-        <f>AVERAGE(G313:G332)</f>
+        <f t="shared" si="4"/>
         <v>102665775</v>
       </c>
       <c r="J332" s="6">
@@ -36906,7 +36909,7 @@
         <v>59001736</v>
       </c>
       <c r="H333" s="18">
-        <f>AVERAGE(G314:G333)</f>
+        <f t="shared" si="4"/>
         <v>99191506.200000003</v>
       </c>
       <c r="J333" s="6">
@@ -36954,7 +36957,7 @@
         <v>84988424</v>
       </c>
       <c r="H334" s="18">
-        <f>AVERAGE(G315:G334)</f>
+        <f t="shared" si="4"/>
         <v>93808574.599999994</v>
       </c>
       <c r="J334" s="6">
@@ -37002,7 +37005,7 @@
         <v>76737024</v>
       </c>
       <c r="H335" s="18">
-        <f>AVERAGE(G316:G335)</f>
+        <f t="shared" si="4"/>
         <v>91442787.400000006</v>
       </c>
       <c r="J335" s="6">
@@ -37050,7 +37053,7 @@
         <v>89317992</v>
       </c>
       <c r="H336" s="18">
-        <f>AVERAGE(G317:G336)</f>
+        <f t="shared" si="4"/>
         <v>89511708.200000003</v>
       </c>
       <c r="J336" s="6">
@@ -37098,7 +37101,7 @@
         <v>140965808</v>
       </c>
       <c r="H337" s="18">
-        <f>AVERAGE(G318:G337)</f>
+        <f t="shared" si="4"/>
         <v>92286259.799999997</v>
       </c>
       <c r="J337" s="6">
@@ -37146,7 +37149,7 @@
         <v>94336840</v>
       </c>
       <c r="H338" s="18">
-        <f>AVERAGE(G319:G338)</f>
+        <f t="shared" si="4"/>
         <v>87720555.400000006</v>
       </c>
       <c r="J338" s="6">
@@ -37194,7 +37197,7 @@
         <v>57193284</v>
       </c>
       <c r="H339" s="18">
-        <f>AVERAGE(G320:G339)</f>
+        <f t="shared" si="4"/>
         <v>85128056.400000006</v>
       </c>
       <c r="J339" s="6">
@@ -37242,7 +37245,7 @@
         <v>69804000</v>
       </c>
       <c r="H340" s="18">
-        <f>AVERAGE(G321:G340)</f>
+        <f t="shared" si="4"/>
         <v>83159329.599999994</v>
       </c>
       <c r="J340" s="6">
@@ -37290,7 +37293,7 @@
         <v>61703432</v>
       </c>
       <c r="H341" s="18">
-        <f>AVERAGE(G322:G341)</f>
+        <f t="shared" ref="H341:H404" si="5">AVERAGE(G322:G341)</f>
         <v>81531890.799999997</v>
       </c>
       <c r="J341" s="6">
@@ -37338,7 +37341,7 @@
         <v>74524544</v>
       </c>
       <c r="H342" s="18">
-        <f>AVERAGE(G323:G342)</f>
+        <f t="shared" si="5"/>
         <v>81695981.200000003</v>
       </c>
       <c r="J342" s="6">
@@ -37386,7 +37389,7 @@
         <v>61915812</v>
       </c>
       <c r="H343" s="18">
-        <f>AVERAGE(G324:G343)</f>
+        <f t="shared" si="5"/>
         <v>80392562.200000003</v>
       </c>
       <c r="J343" s="6">
@@ -37434,7 +37437,7 @@
         <v>56661420</v>
       </c>
       <c r="H344" s="18">
-        <f>AVERAGE(G325:G344)</f>
+        <f t="shared" si="5"/>
         <v>79947120.599999994</v>
       </c>
       <c r="J344" s="6">
@@ -37482,7 +37485,7 @@
         <v>90007968</v>
       </c>
       <c r="H345" s="18">
-        <f>AVERAGE(G326:G345)</f>
+        <f t="shared" si="5"/>
         <v>81102989.400000006</v>
       </c>
       <c r="J345" s="6">
@@ -37530,7 +37533,7 @@
         <v>55784492</v>
       </c>
       <c r="H346" s="18">
-        <f>AVERAGE(G327:G346)</f>
+        <f t="shared" si="5"/>
         <v>80929189.599999994</v>
       </c>
       <c r="J346" s="6">
@@ -37578,7 +37581,7 @@
         <v>58466824</v>
       </c>
       <c r="H347" s="18">
-        <f>AVERAGE(G328:G347)</f>
+        <f t="shared" si="5"/>
         <v>79837158</v>
       </c>
       <c r="J347" s="6">
@@ -37626,7 +37629,7 @@
         <v>66565792</v>
       </c>
       <c r="H348" s="18">
-        <f>AVERAGE(G329:G348)</f>
+        <f t="shared" si="5"/>
         <v>77997146.799999997</v>
       </c>
       <c r="J348" s="6">
@@ -37674,7 +37677,7 @@
         <v>60007156</v>
       </c>
       <c r="H349" s="18">
-        <f>AVERAGE(G330:G349)</f>
+        <f t="shared" si="5"/>
         <v>77607683.799999997</v>
       </c>
       <c r="J349" s="6">
@@ -37722,7 +37725,7 @@
         <v>54774884</v>
       </c>
       <c r="H350" s="18">
-        <f>AVERAGE(G331:G350)</f>
+        <f t="shared" si="5"/>
         <v>74509432.799999997</v>
       </c>
       <c r="J350" s="6">
@@ -37770,7 +37773,7 @@
         <v>66903156</v>
       </c>
       <c r="H351" s="18">
-        <f>AVERAGE(G332:G351)</f>
+        <f t="shared" si="5"/>
         <v>72485261.400000006</v>
       </c>
       <c r="J351" s="6">
@@ -37818,7 +37821,7 @@
         <v>78640328</v>
       </c>
       <c r="H352" s="18">
-        <f>AVERAGE(G333:G352)</f>
+        <f t="shared" si="5"/>
         <v>72915045.799999997</v>
       </c>
       <c r="J352" s="6">
@@ -37866,7 +37869,7 @@
         <v>58299660</v>
       </c>
       <c r="H353" s="18">
-        <f>AVERAGE(G334:G353)</f>
+        <f t="shared" si="5"/>
         <v>72879942</v>
       </c>
       <c r="J353" s="6">
@@ -37914,7 +37917,7 @@
         <v>119866288</v>
       </c>
       <c r="H354" s="18">
-        <f>AVERAGE(G335:G354)</f>
+        <f t="shared" si="5"/>
         <v>74623835.200000003</v>
       </c>
       <c r="J354" s="6">
@@ -37962,7 +37965,7 @@
         <v>72057608</v>
       </c>
       <c r="H355" s="18">
-        <f>AVERAGE(G336:G355)</f>
+        <f t="shared" si="5"/>
         <v>74389864.400000006</v>
       </c>
       <c r="J355" s="6">
@@ -38010,7 +38013,7 @@
         <v>96713160</v>
       </c>
       <c r="H356" s="18">
-        <f>AVERAGE(G337:G356)</f>
+        <f t="shared" si="5"/>
         <v>74759622.799999997</v>
       </c>
       <c r="J356" s="6">
@@ -38058,7 +38061,7 @@
         <v>73691520</v>
       </c>
       <c r="H357" s="18">
-        <f>AVERAGE(G338:G357)</f>
+        <f t="shared" si="5"/>
         <v>71395908.400000006</v>
       </c>
       <c r="J357" s="6">
@@ -38106,7 +38109,7 @@
         <v>46934832</v>
       </c>
       <c r="H358" s="18">
-        <f>AVERAGE(G339:G358)</f>
+        <f t="shared" si="5"/>
         <v>69025808</v>
       </c>
       <c r="J358" s="6">
@@ -38154,7 +38157,7 @@
         <v>52881036</v>
       </c>
       <c r="H359" s="18">
-        <f>AVERAGE(G340:G359)</f>
+        <f t="shared" si="5"/>
         <v>68810195.599999994</v>
       </c>
       <c r="J359" s="6">
@@ -38202,7 +38205,7 @@
         <v>64874192</v>
       </c>
       <c r="H360" s="18">
-        <f>AVERAGE(G341:G360)</f>
+        <f t="shared" si="5"/>
         <v>68563705.200000003</v>
       </c>
       <c r="J360" s="6">
@@ -38250,7 +38253,7 @@
         <v>75460928</v>
       </c>
       <c r="H361" s="18">
-        <f>AVERAGE(G342:G361)</f>
+        <f t="shared" si="5"/>
         <v>69251580</v>
       </c>
       <c r="J361" s="6">
@@ -38298,7 +38301,7 @@
         <v>74602920</v>
       </c>
       <c r="H362" s="18">
-        <f>AVERAGE(G343:G362)</f>
+        <f t="shared" si="5"/>
         <v>69255498.799999997</v>
       </c>
       <c r="J362" s="6">
@@ -38346,7 +38349,7 @@
         <v>60903392</v>
       </c>
       <c r="H363" s="18">
-        <f>AVERAGE(G344:G363)</f>
+        <f t="shared" si="5"/>
         <v>69204877.799999997</v>
       </c>
       <c r="J363" s="6">
@@ -38394,7 +38397,7 @@
         <v>74798688</v>
       </c>
       <c r="H364" s="18">
-        <f>AVERAGE(G345:G364)</f>
+        <f t="shared" si="5"/>
         <v>70111741.200000003</v>
       </c>
       <c r="J364" s="6">
@@ -38442,7 +38445,7 @@
         <v>81770464</v>
       </c>
       <c r="H365" s="18">
-        <f>AVERAGE(G346:G365)</f>
+        <f t="shared" si="5"/>
         <v>69699866</v>
       </c>
       <c r="J365" s="6">
@@ -38490,7 +38493,7 @@
         <v>79730104</v>
       </c>
       <c r="H366" s="18">
-        <f>AVERAGE(G347:G366)</f>
+        <f t="shared" si="5"/>
         <v>70897146.599999994</v>
       </c>
       <c r="J366" s="6">
@@ -38538,7 +38541,7 @@
         <v>123585600</v>
       </c>
       <c r="H367" s="18">
-        <f>AVERAGE(G348:G367)</f>
+        <f t="shared" si="5"/>
         <v>74153085.400000006</v>
       </c>
       <c r="J367" s="6">
@@ -38586,7 +38589,7 @@
         <v>54479888</v>
       </c>
       <c r="H368" s="18">
-        <f>AVERAGE(G349:G368)</f>
+        <f t="shared" si="5"/>
         <v>73548790.200000003</v>
       </c>
       <c r="J368" s="6">
@@ -38634,7 +38637,7 @@
         <v>100410976</v>
       </c>
       <c r="H369" s="18">
-        <f>AVERAGE(G350:G369)</f>
+        <f t="shared" si="5"/>
         <v>75568981.200000003</v>
       </c>
       <c r="J369" s="6">
@@ -38682,7 +38685,7 @@
         <v>55373416</v>
       </c>
       <c r="H370" s="18">
-        <f>AVERAGE(G351:G370)</f>
+        <f t="shared" si="5"/>
         <v>75598907.799999997</v>
       </c>
       <c r="J370" s="6">
@@ -38730,7 +38733,7 @@
         <v>73159376</v>
       </c>
       <c r="H371" s="18">
-        <f>AVERAGE(G352:G371)</f>
+        <f t="shared" si="5"/>
         <v>75911718.799999997</v>
       </c>
       <c r="J371" s="6">
@@ -38778,7 +38781,7 @@
         <v>58283384</v>
       </c>
       <c r="H372" s="18">
-        <f>AVERAGE(G353:G372)</f>
+        <f t="shared" si="5"/>
         <v>74893871.599999994</v>
       </c>
       <c r="J372" s="6">
@@ -38826,7 +38829,7 @@
         <v>141924096</v>
       </c>
       <c r="H373" s="18">
-        <f>AVERAGE(G354:G373)</f>
+        <f t="shared" si="5"/>
         <v>79075093.400000006</v>
       </c>
       <c r="J373" s="6">
@@ -38874,7 +38877,7 @@
         <v>70710976</v>
       </c>
       <c r="H374" s="18">
-        <f>AVERAGE(G355:G374)</f>
+        <f t="shared" si="5"/>
         <v>76617327.799999997</v>
       </c>
       <c r="J374" s="6">
@@ -38922,7 +38925,7 @@
         <v>108213904</v>
       </c>
       <c r="H375" s="18">
-        <f>AVERAGE(G356:G375)</f>
+        <f t="shared" si="5"/>
         <v>78425142.599999994</v>
       </c>
       <c r="J375" s="6">
@@ -38970,7 +38973,7 @@
         <v>78913504</v>
       </c>
       <c r="H376" s="18">
-        <f>AVERAGE(G357:G376)</f>
+        <f t="shared" si="5"/>
         <v>77535159.799999997</v>
       </c>
       <c r="J376" s="6">
@@ -39018,7 +39021,7 @@
         <v>100473760</v>
       </c>
       <c r="H377" s="18">
-        <f>AVERAGE(G358:G377)</f>
+        <f t="shared" si="5"/>
         <v>78874271.799999997</v>
       </c>
       <c r="J377" s="6">
@@ -39066,7 +39069,7 @@
         <v>65431128</v>
       </c>
       <c r="H378" s="18">
-        <f>AVERAGE(G359:G378)</f>
+        <f t="shared" si="5"/>
         <v>79799086.599999994</v>
       </c>
       <c r="J378" s="6">
@@ -39114,7 +39117,7 @@
         <v>43432576</v>
       </c>
       <c r="H379" s="18">
-        <f>AVERAGE(G360:G379)</f>
+        <f t="shared" si="5"/>
         <v>79326663.599999994</v>
       </c>
       <c r="J379" s="6">
@@ -39162,7 +39165,7 @@
         <v>58606568</v>
       </c>
       <c r="H380" s="18">
-        <f>AVERAGE(G361:G380)</f>
+        <f t="shared" si="5"/>
         <v>79013282.400000006</v>
       </c>
       <c r="J380" s="6">
@@ -39210,7 +39213,7 @@
         <v>68456816</v>
       </c>
       <c r="H381" s="18">
-        <f>AVERAGE(G362:G381)</f>
+        <f t="shared" si="5"/>
         <v>78663076.799999997</v>
       </c>
       <c r="J381" s="6">
@@ -39258,7 +39261,7 @@
         <v>52042820</v>
       </c>
       <c r="H382" s="18">
-        <f>AVERAGE(G363:G382)</f>
+        <f t="shared" si="5"/>
         <v>77535071.799999997</v>
       </c>
       <c r="J382" s="6">
@@ -39306,7 +39309,7 @@
         <v>53501064</v>
       </c>
       <c r="H383" s="18">
-        <f>AVERAGE(G364:G383)</f>
+        <f t="shared" si="5"/>
         <v>77164955.400000006</v>
       </c>
       <c r="J383" s="6">
@@ -39354,7 +39357,7 @@
         <v>79329656</v>
       </c>
       <c r="H384" s="18">
-        <f>AVERAGE(G365:G384)</f>
+        <f t="shared" si="5"/>
         <v>77391503.799999997</v>
       </c>
       <c r="J384" s="6">
@@ -39402,7 +39405,7 @@
         <v>61899772</v>
       </c>
       <c r="H385" s="18">
-        <f>AVERAGE(G366:G385)</f>
+        <f t="shared" si="5"/>
         <v>76397969.200000003</v>
       </c>
       <c r="J385" s="6">
@@ -39450,7 +39453,7 @@
         <v>49659024</v>
       </c>
       <c r="H386" s="18">
-        <f>AVERAGE(G367:G386)</f>
+        <f t="shared" si="5"/>
         <v>74894415.200000003</v>
       </c>
       <c r="J386" s="6">
@@ -39498,7 +39501,7 @@
         <v>49624096</v>
       </c>
       <c r="H387" s="18">
-        <f>AVERAGE(G368:G387)</f>
+        <f t="shared" si="5"/>
         <v>71196340</v>
       </c>
       <c r="J387" s="6">
@@ -39546,7 +39549,7 @@
         <v>53860032</v>
       </c>
       <c r="H388" s="18">
-        <f>AVERAGE(G369:G388)</f>
+        <f t="shared" si="5"/>
         <v>71165347.200000003</v>
       </c>
       <c r="J388" s="6">
@@ -39594,7 +39597,7 @@
         <v>45910016</v>
       </c>
       <c r="H389" s="18">
-        <f>AVERAGE(G370:G389)</f>
+        <f t="shared" si="5"/>
         <v>68440299.200000003</v>
       </c>
       <c r="J389" s="6">
@@ -39642,7 +39645,7 @@
         <v>63225212</v>
       </c>
       <c r="H390" s="18">
-        <f>AVERAGE(G371:G390)</f>
+        <f t="shared" si="5"/>
         <v>68832889</v>
       </c>
       <c r="J390" s="6">
@@ -39690,7 +39693,7 @@
         <v>84804656</v>
       </c>
       <c r="H391" s="18">
-        <f>AVERAGE(G372:G391)</f>
+        <f t="shared" si="5"/>
         <v>69415153</v>
       </c>
       <c r="J391" s="6">
@@ -39738,7 +39741,7 @@
         <v>48436568</v>
       </c>
       <c r="H392" s="18">
-        <f>AVERAGE(G373:G392)</f>
+        <f t="shared" si="5"/>
         <v>68922812.200000003</v>
       </c>
       <c r="J392" s="6">
@@ -39786,7 +39789,7 @@
         <v>70035320</v>
       </c>
       <c r="H393" s="18">
-        <f>AVERAGE(G374:G393)</f>
+        <f t="shared" si="5"/>
         <v>65328373.399999999</v>
       </c>
       <c r="J393" s="6">
@@ -39834,7 +39837,7 @@
         <v>81211824</v>
       </c>
       <c r="H394" s="18">
-        <f>AVERAGE(G375:G394)</f>
+        <f t="shared" si="5"/>
         <v>65853415.799999997</v>
       </c>
       <c r="J394" s="6">
@@ -39882,7 +39885,7 @@
         <v>59629476</v>
       </c>
       <c r="H395" s="18">
-        <f>AVERAGE(G376:G395)</f>
+        <f t="shared" si="5"/>
         <v>63424194.399999999</v>
       </c>
       <c r="J395" s="6">
@@ -39930,7 +39933,7 @@
         <v>79050080</v>
       </c>
       <c r="H396" s="18">
-        <f>AVERAGE(G377:G396)</f>
+        <f t="shared" si="5"/>
         <v>63431023.200000003</v>
       </c>
       <c r="J396" s="6">
@@ -39978,7 +39981,7 @@
         <v>65624404</v>
       </c>
       <c r="H397" s="18">
-        <f>AVERAGE(G378:G397)</f>
+        <f t="shared" si="5"/>
         <v>61688555.399999999</v>
       </c>
       <c r="J397" s="6">
@@ -40026,7 +40029,7 @@
         <v>70594928</v>
       </c>
       <c r="H398" s="18">
-        <f>AVERAGE(G379:G398)</f>
+        <f t="shared" si="5"/>
         <v>61946745.399999999</v>
       </c>
       <c r="J398" s="6">
@@ -40074,7 +40077,7 @@
         <v>55443260</v>
       </c>
       <c r="H399" s="18">
-        <f>AVERAGE(G380:G399)</f>
+        <f t="shared" si="5"/>
         <v>62547279.600000001</v>
       </c>
       <c r="J399" s="6">
@@ -40122,7 +40125,7 @@
         <v>65298924</v>
       </c>
       <c r="H400" s="18">
-        <f>AVERAGE(G381:G400)</f>
+        <f t="shared" si="5"/>
         <v>62881897.399999999</v>
       </c>
       <c r="J400" s="6">
@@ -40170,7 +40173,7 @@
         <v>55527740</v>
       </c>
       <c r="H401" s="18">
-        <f>AVERAGE(G382:G401)</f>
+        <f t="shared" si="5"/>
         <v>62235443.600000001</v>
       </c>
       <c r="J401" s="6">
@@ -40218,7 +40221,7 @@
         <v>40564136</v>
       </c>
       <c r="H402" s="18">
-        <f>AVERAGE(G383:G402)</f>
+        <f t="shared" si="5"/>
         <v>61661509.399999999</v>
       </c>
       <c r="J402" s="6">
@@ -40266,7 +40269,7 @@
         <v>44471960</v>
       </c>
       <c r="H403" s="18">
-        <f>AVERAGE(G384:G403)</f>
+        <f t="shared" si="5"/>
         <v>61210054.200000003</v>
       </c>
       <c r="J403" s="6">
@@ -40314,7 +40317,7 @@
         <v>43357916</v>
       </c>
       <c r="H404" s="18">
-        <f>AVERAGE(G385:G404)</f>
+        <f t="shared" si="5"/>
         <v>59411467.200000003</v>
       </c>
       <c r="J404" s="6">
@@ -40362,7 +40365,7 @@
         <v>36771464</v>
       </c>
       <c r="H405" s="18">
-        <f>AVERAGE(G386:G405)</f>
+        <f t="shared" ref="H405:H468" si="6">AVERAGE(G386:G405)</f>
         <v>58155051.799999997</v>
       </c>
       <c r="J405" s="6">
@@ -40410,7 +40413,7 @@
         <v>79351592</v>
       </c>
       <c r="H406" s="18">
-        <f>AVERAGE(G387:G406)</f>
+        <f t="shared" si="6"/>
         <v>59639680.200000003</v>
       </c>
       <c r="J406" s="6">
@@ -40458,7 +40461,7 @@
         <v>67673568</v>
       </c>
       <c r="H407" s="18">
-        <f>AVERAGE(G388:G407)</f>
+        <f t="shared" si="6"/>
         <v>60542153.799999997</v>
       </c>
       <c r="J407" s="6">
@@ -40506,7 +40509,7 @@
         <v>45136396</v>
       </c>
       <c r="H408" s="18">
-        <f>AVERAGE(G389:G408)</f>
+        <f t="shared" si="6"/>
         <v>60105972</v>
       </c>
       <c r="J408" s="6">
@@ -40554,7 +40557,7 @@
         <v>105964064</v>
       </c>
       <c r="H409" s="18">
-        <f>AVERAGE(G390:G409)</f>
+        <f t="shared" si="6"/>
         <v>63108674.399999999</v>
       </c>
       <c r="J409" s="6">
@@ -40602,7 +40605,7 @@
         <v>72033608</v>
       </c>
       <c r="H410" s="18">
-        <f>AVERAGE(G391:G410)</f>
+        <f t="shared" si="6"/>
         <v>63549094.200000003</v>
       </c>
       <c r="J410" s="6">
@@ -40650,7 +40653,7 @@
         <v>67555760</v>
       </c>
       <c r="H411" s="18">
-        <f>AVERAGE(G392:G411)</f>
+        <f t="shared" si="6"/>
         <v>62686649.399999999</v>
       </c>
       <c r="J411" s="6">
@@ -40698,7 +40701,7 @@
         <v>40982744</v>
       </c>
       <c r="H412" s="18">
-        <f>AVERAGE(G393:G412)</f>
+        <f t="shared" si="6"/>
         <v>62313958.200000003</v>
       </c>
       <c r="J412" s="6">
@@ -40746,7 +40749,7 @@
         <v>69258080</v>
       </c>
       <c r="H413" s="18">
-        <f>AVERAGE(G394:G413)</f>
+        <f t="shared" si="6"/>
         <v>62275096.200000003</v>
       </c>
       <c r="J413" s="6">
@@ -40794,7 +40797,7 @@
         <v>46321688</v>
       </c>
       <c r="H414" s="18">
-        <f>AVERAGE(G395:G414)</f>
+        <f t="shared" si="6"/>
         <v>60530589.399999999</v>
       </c>
       <c r="J414" s="6">
@@ -40842,7 +40845,7 @@
         <v>50657548</v>
       </c>
       <c r="H415" s="18">
-        <f>AVERAGE(G396:G415)</f>
+        <f t="shared" si="6"/>
         <v>60081993</v>
       </c>
       <c r="J415" s="6">
@@ -40890,7 +40893,7 @@
         <v>59184624</v>
       </c>
       <c r="H416" s="18">
-        <f>AVERAGE(G397:G416)</f>
+        <f t="shared" si="6"/>
         <v>59088720.200000003</v>
       </c>
       <c r="J416" s="6">
@@ -40938,7 +40941,7 @@
         <v>58757348</v>
       </c>
       <c r="H417" s="18">
-        <f>AVERAGE(G398:G417)</f>
+        <f t="shared" si="6"/>
         <v>58745367.399999999</v>
       </c>
       <c r="J417" s="6">
@@ -40986,7 +40989,7 @@
         <v>48329404</v>
       </c>
       <c r="H418" s="18">
-        <f>AVERAGE(G399:G418)</f>
+        <f t="shared" si="6"/>
         <v>57632091.200000003</v>
       </c>
       <c r="J418" s="6">
@@ -41034,7 +41037,7 @@
         <v>63300776</v>
       </c>
       <c r="H419" s="18">
-        <f>AVERAGE(G400:G419)</f>
+        <f t="shared" si="6"/>
         <v>58024967</v>
       </c>
       <c r="J419" s="6">
@@ -41082,7 +41085,7 @@
         <v>63037208</v>
       </c>
       <c r="H420" s="18">
-        <f>AVERAGE(G401:G420)</f>
+        <f t="shared" si="6"/>
         <v>57911881.200000003</v>
       </c>
       <c r="J420" s="6">
@@ -41130,7 +41133,7 @@
         <v>68093544</v>
       </c>
       <c r="H421" s="18">
-        <f>AVERAGE(G402:G421)</f>
+        <f t="shared" si="6"/>
         <v>58540171.399999999</v>
       </c>
       <c r="J421" s="6">
@@ -41178,7 +41181,7 @@
         <v>59294748</v>
       </c>
       <c r="H422" s="18">
-        <f>AVERAGE(G403:G422)</f>
+        <f t="shared" si="6"/>
         <v>59476702</v>
       </c>
       <c r="J422" s="6">
@@ -41226,7 +41229,7 @@
         <v>74591480</v>
       </c>
       <c r="H423" s="18">
-        <f>AVERAGE(G404:G423)</f>
+        <f t="shared" si="6"/>
         <v>60982678</v>
       </c>
       <c r="J423" s="6">
@@ -41274,7 +41277,7 @@
         <v>67855744</v>
       </c>
       <c r="H424" s="18">
-        <f>AVERAGE(G405:G424)</f>
+        <f t="shared" si="6"/>
         <v>62207569.399999999</v>
       </c>
       <c r="J424" s="6">
@@ -41322,7 +41325,7 @@
         <v>75695528</v>
       </c>
       <c r="H425" s="18">
-        <f>AVERAGE(G406:G425)</f>
+        <f t="shared" si="6"/>
         <v>64153772.600000001</v>
       </c>
       <c r="J425" s="6">
@@ -41370,7 +41373,7 @@
         <v>51693300</v>
       </c>
       <c r="H426" s="18">
-        <f>AVERAGE(G407:G426)</f>
+        <f t="shared" si="6"/>
         <v>62770858</v>
       </c>
       <c r="J426" s="6">
@@ -41418,7 +41421,7 @@
         <v>52022324</v>
       </c>
       <c r="H427" s="18">
-        <f>AVERAGE(G408:G427)</f>
+        <f t="shared" si="6"/>
         <v>61988295.799999997</v>
       </c>
       <c r="J427" s="6">
@@ -41466,7 +41469,7 @@
         <v>61576576</v>
       </c>
       <c r="H428" s="18">
-        <f>AVERAGE(G409:G428)</f>
+        <f t="shared" si="6"/>
         <v>62810304.799999997</v>
       </c>
       <c r="J428" s="6">
@@ -41514,7 +41517,7 @@
         <v>52540928</v>
       </c>
       <c r="H429" s="18">
-        <f>AVERAGE(G410:G429)</f>
+        <f t="shared" si="6"/>
         <v>60139148</v>
       </c>
       <c r="J429" s="6">
@@ -41562,7 +41565,7 @@
         <v>56706020</v>
       </c>
       <c r="H430" s="18">
-        <f>AVERAGE(G411:G430)</f>
+        <f t="shared" si="6"/>
         <v>59372768.600000001</v>
       </c>
       <c r="J430" s="6">
@@ -41610,7 +41613,7 @@
         <v>70258840</v>
       </c>
       <c r="H431" s="18">
-        <f>AVERAGE(G412:G431)</f>
+        <f t="shared" si="6"/>
         <v>59507922.600000001</v>
       </c>
       <c r="J431" s="6">
@@ -41658,7 +41661,7 @@
         <v>63758804</v>
       </c>
       <c r="H432" s="18">
-        <f>AVERAGE(G413:G432)</f>
+        <f t="shared" si="6"/>
         <v>60646725.600000001</v>
       </c>
       <c r="J432" s="6">
@@ -41706,7 +41709,7 @@
         <v>50529584</v>
       </c>
       <c r="H433" s="18">
-        <f>AVERAGE(G414:G433)</f>
+        <f t="shared" si="6"/>
         <v>59710300.799999997</v>
       </c>
       <c r="J433" s="6">
@@ -41754,7 +41757,7 @@
         <v>103323632</v>
       </c>
       <c r="H434" s="18">
-        <f>AVERAGE(G415:G434)</f>
+        <f t="shared" si="6"/>
         <v>62560398</v>
       </c>
       <c r="J434" s="6">
@@ -41802,7 +41805,7 @@
         <v>108104552</v>
       </c>
       <c r="H435" s="18">
-        <f>AVERAGE(G416:G435)</f>
+        <f t="shared" si="6"/>
         <v>65432748.200000003</v>
       </c>
       <c r="J435" s="6">
@@ -41850,7 +41853,7 @@
         <v>54738760</v>
       </c>
       <c r="H436" s="18">
-        <f>AVERAGE(G417:G436)</f>
+        <f t="shared" si="6"/>
         <v>65210455</v>
       </c>
       <c r="J436" s="6">
@@ -41898,7 +41901,7 @@
         <v>45474200</v>
       </c>
       <c r="H437" s="18">
-        <f>AVERAGE(G418:G437)</f>
+        <f t="shared" si="6"/>
         <v>64546297.600000001</v>
       </c>
       <c r="J437" s="6">
@@ -41946,7 +41949,7 @@
         <v>81724024</v>
       </c>
       <c r="H438" s="18">
-        <f>AVERAGE(G419:G438)</f>
+        <f t="shared" si="6"/>
         <v>66216028.600000001</v>
       </c>
       <c r="J438" s="6">
@@ -41994,7 +41997,7 @@
         <v>60723896</v>
       </c>
       <c r="H439" s="18">
-        <f>AVERAGE(G420:G439)</f>
+        <f t="shared" si="6"/>
         <v>66087184.600000001</v>
       </c>
       <c r="J439" s="6">
@@ -42042,7 +42045,7 @@
         <v>71835632</v>
       </c>
       <c r="H440" s="18">
-        <f>AVERAGE(G421:G440)</f>
+        <f t="shared" si="6"/>
         <v>66527105.799999997</v>
       </c>
       <c r="J440" s="6">
@@ -42090,7 +42093,7 @@
         <v>63623792</v>
       </c>
       <c r="H441" s="18">
-        <f>AVERAGE(G422:G441)</f>
+        <f t="shared" si="6"/>
         <v>66303618.200000003</v>
       </c>
       <c r="J441" s="6">
@@ -42138,7 +42141,7 @@
         <v>48434264</v>
       </c>
       <c r="H442" s="18">
-        <f>AVERAGE(G423:G442)</f>
+        <f t="shared" si="6"/>
         <v>65760594</v>
       </c>
       <c r="J442" s="6">
@@ -42186,7 +42189,7 @@
         <v>66304540</v>
       </c>
       <c r="H443" s="18">
-        <f>AVERAGE(G424:G443)</f>
+        <f t="shared" si="6"/>
         <v>65346247</v>
       </c>
       <c r="J443" s="6">
@@ -42234,7 +42237,7 @@
         <v>114321768</v>
       </c>
       <c r="H444" s="18">
-        <f>AVERAGE(G425:G444)</f>
+        <f t="shared" si="6"/>
         <v>67669548.200000003</v>
       </c>
       <c r="J444" s="6">
@@ -42282,7 +42285,7 @@
         <v>108588344</v>
       </c>
       <c r="H445" s="18">
-        <f>AVERAGE(G426:G445)</f>
+        <f t="shared" si="6"/>
         <v>69314189</v>
       </c>
       <c r="J445" s="6">
@@ -42330,7 +42333,7 @@
         <v>89925664</v>
       </c>
       <c r="H446" s="18">
-        <f>AVERAGE(G427:G446)</f>
+        <f t="shared" si="6"/>
         <v>71225807.200000003</v>
       </c>
       <c r="J446" s="6">
@@ -42378,7 +42381,7 @@
         <v>76188928</v>
       </c>
       <c r="H447" s="18">
-        <f>AVERAGE(G428:G447)</f>
+        <f t="shared" si="6"/>
         <v>72434137.400000006</v>
       </c>
       <c r="J447" s="6">
@@ -42426,7 +42429,7 @@
         <v>220074688</v>
       </c>
       <c r="H448" s="18">
-        <f>AVERAGE(G429:G448)</f>
+        <f t="shared" si="6"/>
         <v>80359043</v>
       </c>
       <c r="J448" s="6">
@@ -42474,7 +42477,7 @@
         <v>281680000</v>
       </c>
       <c r="H449" s="18">
-        <f>AVERAGE(G430:G449)</f>
+        <f t="shared" si="6"/>
         <v>91815996.599999994</v>
       </c>
       <c r="J449" s="6">
@@ -42522,7 +42525,7 @@
         <v>187745152</v>
       </c>
       <c r="H450" s="18">
-        <f>AVERAGE(G431:G450)</f>
+        <f t="shared" si="6"/>
         <v>98367953.200000003</v>
       </c>
       <c r="J450" s="6">
@@ -42570,7 +42573,7 @@
         <v>104808584</v>
       </c>
       <c r="H451" s="18">
-        <f>AVERAGE(G432:G451)</f>
+        <f t="shared" si="6"/>
         <v>100095440.40000001</v>
       </c>
       <c r="J451" s="6">
@@ -42618,7 +42621,7 @@
         <v>121198672</v>
       </c>
       <c r="H452" s="18">
-        <f>AVERAGE(G433:G452)</f>
+        <f t="shared" si="6"/>
         <v>102967433.8</v>
       </c>
       <c r="J452" s="6">
@@ -42666,7 +42669,7 @@
         <v>113378952</v>
       </c>
       <c r="H453" s="18">
-        <f>AVERAGE(G434:G453)</f>
+        <f t="shared" si="6"/>
         <v>106109902.2</v>
       </c>
       <c r="J453" s="6">
@@ -42714,7 +42717,7 @@
         <v>137906032</v>
       </c>
       <c r="H454" s="18">
-        <f>AVERAGE(G435:G454)</f>
+        <f t="shared" si="6"/>
         <v>107839022.2</v>
       </c>
       <c r="J454" s="6">
@@ -42762,7 +42765,7 @@
         <v>143383136</v>
       </c>
       <c r="H455" s="18">
-        <f>AVERAGE(G436:G455)</f>
+        <f t="shared" si="6"/>
         <v>109602951.40000001</v>
       </c>
       <c r="J455" s="6">
@@ -42810,7 +42813,7 @@
         <v>84466760</v>
       </c>
       <c r="H456" s="18">
-        <f>AVERAGE(G437:G456)</f>
+        <f t="shared" si="6"/>
         <v>111089351.40000001</v>
       </c>
       <c r="J456" s="6">
@@ -42858,7 +42861,7 @@
         <v>149994752</v>
       </c>
       <c r="H457" s="18">
-        <f>AVERAGE(G438:G457)</f>
+        <f t="shared" si="6"/>
         <v>116315379</v>
       </c>
       <c r="J457" s="6">
@@ -42906,7 +42909,7 @@
         <v>182231472</v>
       </c>
       <c r="H458" s="18">
-        <f>AVERAGE(G439:G458)</f>
+        <f t="shared" si="6"/>
         <v>121340751.40000001</v>
       </c>
       <c r="J458" s="6">
@@ -42954,7 +42957,7 @@
         <v>141497248</v>
       </c>
       <c r="H459" s="18">
-        <f>AVERAGE(G440:G459)</f>
+        <f t="shared" si="6"/>
         <v>125379419</v>
       </c>
       <c r="J459" s="6">
@@ -43002,7 +43005,7 @@
         <v>206590848</v>
       </c>
       <c r="H460" s="18">
-        <f>AVERAGE(G441:G460)</f>
+        <f t="shared" si="6"/>
         <v>132117179.8</v>
       </c>
       <c r="J460" s="6">
@@ -43050,7 +43053,7 @@
         <v>164749392</v>
       </c>
       <c r="H461" s="18">
-        <f>AVERAGE(G442:G461)</f>
+        <f t="shared" si="6"/>
         <v>137173459.80000001</v>
       </c>
       <c r="J461" s="6">
@@ -43098,7 +43101,7 @@
         <v>161025888</v>
       </c>
       <c r="H462" s="18">
-        <f>AVERAGE(G443:G462)</f>
+        <f t="shared" si="6"/>
         <v>142803041</v>
       </c>
       <c r="J462" s="6">
@@ -43146,7 +43149,7 @@
         <v>131489024</v>
       </c>
       <c r="H463" s="18">
-        <f>AVERAGE(G444:G463)</f>
+        <f t="shared" si="6"/>
         <v>146062265.19999999</v>
       </c>
       <c r="J463" s="6">
@@ -43194,7 +43197,7 @@
         <v>101971008</v>
       </c>
       <c r="H464" s="18">
-        <f>AVERAGE(G445:G464)</f>
+        <f t="shared" si="6"/>
         <v>145444727.19999999</v>
       </c>
       <c r="J464" s="6">
@@ -43242,7 +43245,7 @@
         <v>125685896</v>
       </c>
       <c r="H465" s="18">
-        <f>AVERAGE(G446:G465)</f>
+        <f t="shared" si="6"/>
         <v>146299604.80000001</v>
       </c>
       <c r="J465" s="6">
@@ -43290,7 +43293,7 @@
         <v>67255520</v>
       </c>
       <c r="H466" s="18">
-        <f>AVERAGE(G447:G466)</f>
+        <f t="shared" si="6"/>
         <v>145166097.59999999</v>
       </c>
       <c r="J466" s="6">
@@ -43338,7 +43341,7 @@
         <v>61581152</v>
       </c>
       <c r="H467" s="18">
-        <f>AVERAGE(G448:G467)</f>
+        <f t="shared" si="6"/>
         <v>144435708.80000001</v>
       </c>
       <c r="J467" s="6">
@@ -43386,7 +43389,7 @@
         <v>105309120</v>
       </c>
       <c r="H468" s="18">
-        <f>AVERAGE(G449:G468)</f>
+        <f t="shared" si="6"/>
         <v>138697430.40000001</v>
       </c>
       <c r="J468" s="6">
@@ -43434,7 +43437,7 @@
         <v>67216992</v>
       </c>
       <c r="H469" s="18">
-        <f>AVERAGE(G450:G469)</f>
+        <f t="shared" ref="H469:H532" si="7">AVERAGE(G450:G469)</f>
         <v>127974280</v>
       </c>
       <c r="J469" s="6">
@@ -43482,7 +43485,7 @@
         <v>101271544</v>
       </c>
       <c r="H470" s="18">
-        <f>AVERAGE(G451:G470)</f>
+        <f t="shared" si="7"/>
         <v>123650599.59999999</v>
       </c>
       <c r="J470" s="6">
@@ -43530,7 +43533,7 @@
         <v>102153984</v>
       </c>
       <c r="H471" s="18">
-        <f>AVERAGE(G452:G471)</f>
+        <f t="shared" si="7"/>
         <v>123517869.59999999</v>
       </c>
       <c r="J471" s="6">
@@ -43578,7 +43581,7 @@
         <v>100619768</v>
       </c>
       <c r="H472" s="18">
-        <f>AVERAGE(G453:G472)</f>
+        <f t="shared" si="7"/>
         <v>122488924.40000001</v>
       </c>
       <c r="J472" s="6">
@@ -43626,7 +43629,7 @@
         <v>128454960</v>
       </c>
       <c r="H473" s="18">
-        <f>AVERAGE(G454:G473)</f>
+        <f t="shared" si="7"/>
         <v>123242724.8</v>
       </c>
       <c r="J473" s="6">
@@ -43674,7 +43677,7 @@
         <v>138463488</v>
       </c>
       <c r="H474" s="18">
-        <f>AVERAGE(G455:G474)</f>
+        <f t="shared" si="7"/>
         <v>123270597.59999999</v>
       </c>
       <c r="J474" s="6">
@@ -43722,7 +43725,7 @@
         <v>129820216</v>
       </c>
       <c r="H475" s="18">
-        <f>AVERAGE(G456:G475)</f>
+        <f t="shared" si="7"/>
         <v>122592451.59999999</v>
       </c>
       <c r="J475" s="6">
@@ -43770,7 +43773,7 @@
         <v>105626432</v>
       </c>
       <c r="H476" s="18">
-        <f>AVERAGE(G457:G476)</f>
+        <f t="shared" si="7"/>
         <v>123650435.2</v>
       </c>
       <c r="J476" s="6">
@@ -43818,7 +43821,7 @@
         <v>139406240</v>
       </c>
       <c r="H477" s="18">
-        <f>AVERAGE(G458:G477)</f>
+        <f t="shared" si="7"/>
         <v>123121009.59999999</v>
       </c>
       <c r="J477" s="6">
@@ -43866,7 +43869,7 @@
         <v>77444168</v>
       </c>
       <c r="H478" s="18">
-        <f>AVERAGE(G459:G478)</f>
+        <f t="shared" si="7"/>
         <v>117881644.40000001</v>
       </c>
       <c r="J478" s="6">
@@ -43914,7 +43917,7 @@
         <v>43873168</v>
       </c>
       <c r="H479" s="18">
-        <f>AVERAGE(G460:G479)</f>
+        <f t="shared" si="7"/>
         <v>113000440.40000001</v>
       </c>
       <c r="J479" s="6">
@@ -43962,7 +43965,7 @@
         <v>81971728</v>
       </c>
       <c r="H480" s="18">
-        <f>AVERAGE(G461:G480)</f>
+        <f t="shared" si="7"/>
         <v>106769484.40000001</v>
       </c>
       <c r="J480" s="6">
@@ -44010,7 +44013,7 @@
         <v>77381344</v>
       </c>
       <c r="H481" s="18">
-        <f>AVERAGE(G462:G481)</f>
+        <f t="shared" si="7"/>
         <v>102401082</v>
       </c>
       <c r="J481" s="6">
@@ -44058,7 +44061,7 @@
         <v>130805744</v>
       </c>
       <c r="H482" s="18">
-        <f>AVERAGE(G463:G482)</f>
+        <f t="shared" si="7"/>
         <v>100890074.8</v>
       </c>
       <c r="J482" s="6">
@@ -44106,7 +44109,7 @@
         <v>84395640</v>
       </c>
       <c r="H483" s="18">
-        <f>AVERAGE(G464:G483)</f>
+        <f t="shared" si="7"/>
         <v>98535405.599999994</v>
       </c>
       <c r="J483" s="6">
@@ -44154,7 +44157,7 @@
         <v>100648032</v>
       </c>
       <c r="H484" s="18">
-        <f>AVERAGE(G465:G484)</f>
+        <f t="shared" si="7"/>
         <v>98469256.799999997</v>
       </c>
       <c r="J484" s="6">
@@ -44202,7 +44205,7 @@
         <v>105581352</v>
       </c>
       <c r="H485" s="18">
-        <f>AVERAGE(G466:G485)</f>
+        <f t="shared" si="7"/>
         <v>97464029.599999994</v>
       </c>
       <c r="J485" s="6">
@@ -44250,7 +44253,7 @@
         <v>182415248</v>
       </c>
       <c r="H486" s="18">
-        <f>AVERAGE(G467:G486)</f>
+        <f t="shared" si="7"/>
         <v>103222016</v>
       </c>
       <c r="J486" s="6">
@@ -44298,7 +44301,7 @@
         <v>209266640</v>
       </c>
       <c r="H487" s="18">
-        <f>AVERAGE(G468:G487)</f>
+        <f t="shared" si="7"/>
         <v>110606290.40000001</v>
       </c>
       <c r="J487" s="6">
@@ -44346,7 +44349,7 @@
         <v>165025936</v>
       </c>
       <c r="H488" s="18">
-        <f>AVERAGE(G469:G488)</f>
+        <f t="shared" si="7"/>
         <v>113592131.2</v>
       </c>
       <c r="J488" s="6">
@@ -44394,7 +44397,7 @@
         <v>155214672</v>
       </c>
       <c r="H489" s="18">
-        <f>AVERAGE(G470:G489)</f>
+        <f t="shared" si="7"/>
         <v>117992015.2</v>
       </c>
       <c r="J489" s="6">
@@ -44442,7 +44445,7 @@
         <v>124528112</v>
       </c>
       <c r="H490" s="18">
-        <f>AVERAGE(G471:G490)</f>
+        <f t="shared" si="7"/>
         <v>119154843.59999999</v>
       </c>
       <c r="J490" s="6">
@@ -44490,7 +44493,7 @@
         <v>100414888</v>
       </c>
       <c r="H491" s="18">
-        <f>AVERAGE(G472:G491)</f>
+        <f t="shared" si="7"/>
         <v>119067888.8</v>
       </c>
       <c r="J491" s="6">
@@ -44538,7 +44541,7 @@
         <v>99068200</v>
       </c>
       <c r="H492" s="18">
-        <f>AVERAGE(G473:G492)</f>
+        <f t="shared" si="7"/>
         <v>118990310.40000001</v>
       </c>
       <c r="J492" s="6">
@@ -44586,7 +44589,7 @@
         <v>119871688</v>
       </c>
       <c r="H493" s="18">
-        <f>AVERAGE(G474:G493)</f>
+        <f t="shared" si="7"/>
         <v>118561146.8</v>
       </c>
       <c r="J493" s="6">
@@ -44634,7 +44637,7 @@
         <v>169610592</v>
       </c>
       <c r="H494" s="18">
-        <f>AVERAGE(G475:G494)</f>
+        <f t="shared" si="7"/>
         <v>120118502</v>
       </c>
       <c r="J494" s="6">
@@ -44682,7 +44685,7 @@
         <v>137862544</v>
       </c>
       <c r="H495" s="18">
-        <f>AVERAGE(G476:G495)</f>
+        <f t="shared" si="7"/>
         <v>120520618.40000001</v>
       </c>
       <c r="J495" s="6">
@@ -44730,7 +44733,7 @@
         <v>220342928</v>
       </c>
       <c r="H496" s="18">
-        <f>AVERAGE(G477:G496)</f>
+        <f t="shared" si="7"/>
         <v>126256443.2</v>
       </c>
       <c r="J496" s="6">
@@ -44778,7 +44781,7 @@
         <v>258325808</v>
       </c>
       <c r="H497" s="18">
-        <f>AVERAGE(G478:G497)</f>
+        <f t="shared" si="7"/>
         <v>132202421.59999999</v>
       </c>
       <c r="J497" s="6">
@@ -44826,7 +44829,7 @@
         <v>260180208</v>
       </c>
       <c r="H498" s="18">
-        <f>AVERAGE(G479:G498)</f>
+        <f t="shared" si="7"/>
         <v>141339223.59999999</v>
       </c>
       <c r="J498" s="6">
@@ -44874,7 +44877,7 @@
         <v>150100704</v>
       </c>
       <c r="H499" s="18">
-        <f>AVERAGE(G480:G499)</f>
+        <f t="shared" si="7"/>
         <v>146650600.40000001</v>
       </c>
       <c r="J499" s="6">
@@ -44922,7 +44925,7 @@
         <v>222622048</v>
       </c>
       <c r="H500" s="18">
-        <f>AVERAGE(G481:G500)</f>
+        <f t="shared" si="7"/>
         <v>153683116.40000001</v>
       </c>
       <c r="J500" s="6">
@@ -44970,7 +44973,7 @@
         <v>189794032</v>
       </c>
       <c r="H501" s="18">
-        <f>AVERAGE(G482:G501)</f>
+        <f t="shared" si="7"/>
         <v>159303750.80000001</v>
       </c>
       <c r="J501" s="6">
@@ -45018,7 +45021,7 @@
         <v>155998912</v>
       </c>
       <c r="H502" s="18">
-        <f>AVERAGE(G483:G502)</f>
+        <f t="shared" si="7"/>
         <v>160563409.19999999</v>
       </c>
       <c r="J502" s="6">
@@ -45066,7 +45069,7 @@
         <v>147031456</v>
       </c>
       <c r="H503" s="14">
-        <f>AVERAGE(G484:G503)</f>
+        <f t="shared" si="7"/>
         <v>163695200</v>
       </c>
       <c r="J503" s="6">
